--- a/Boston_Social_Vulnerability.xlsx
+++ b/Boston_Social_Vulnerability.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Google Drive/DS 2000/Project/Boston-Redlining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0ED010F7-3257-6641-A850-C4EC119D77BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F887EF3B-443F-DB46-9499-2AEF33FD2F6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate_Ready_Boston_Social_Vul" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Climate_Ready_Boston_Social_Vul!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
   <si>
     <t>FID</t>
   </si>
@@ -110,11 +111,14 @@
   <si>
     <t>South Boston</t>
   </si>
+  <si>
+    <t>Leather District</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -949,17 +953,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="I2" sqref="I2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -992,54 +997,54 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>25025010405</v>
+        <v>25025000703</v>
       </c>
       <c r="C2">
-        <v>3914567.54</v>
+        <v>1916064.65</v>
       </c>
       <c r="D2">
-        <v>89.866100000000003</v>
+        <v>43.986800000000002</v>
       </c>
       <c r="E2">
-        <v>1755</v>
+        <v>1083</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
-        <v>3.9731689710999999E-5</v>
+        <v>1.9450947918999999E-5</v>
       </c>
       <c r="H2">
-        <v>4.6606703233607001E-2</v>
+        <v>2.5366890098239E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>25025010404</v>
+        <v>25025000704</v>
       </c>
       <c r="C3">
-        <v>1472713.92</v>
+        <v>2580833.98</v>
       </c>
       <c r="D3">
-        <v>33.808900000000001</v>
+        <v>59.247799999999998</v>
       </c>
       <c r="E3">
-        <v>1749</v>
+        <v>1928</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>1.494808436E-5</v>
+        <v>2.6198822389E-5</v>
       </c>
       <c r="H3">
-        <v>1.7437192143295002E-2</v>
+        <v>2.210225508705E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1096,4146 +1101,4172 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>25025010204</v>
+        <v>25025010802</v>
       </c>
       <c r="C6">
-        <v>2741497.18</v>
+        <v>1673329.62</v>
       </c>
       <c r="D6">
-        <v>62.936100000000003</v>
+        <v>38.414400000000001</v>
       </c>
       <c r="E6">
-        <v>1039</v>
+        <v>517</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>2.7828138435E-5</v>
+        <v>1.6986886383000001E-5</v>
       </c>
       <c r="H6">
-        <v>2.5103492344747999E-2</v>
+        <v>2.2044296764161E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>25025010802</v>
+        <v>25025010104</v>
       </c>
       <c r="C7">
-        <v>1673329.62</v>
+        <v>3086172.34</v>
       </c>
       <c r="D7">
-        <v>38.414400000000001</v>
+        <v>70.848799999999997</v>
       </c>
       <c r="E7">
-        <v>517</v>
+        <v>1664</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>1.6986886383000001E-5</v>
+        <v>3.1328275672E-5</v>
       </c>
       <c r="H7">
-        <v>2.2044296764161E-2</v>
+        <v>3.2742953323853997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>25025010104</v>
+        <v>25025010701</v>
       </c>
       <c r="C8">
-        <v>3086172.34</v>
+        <v>2177562.16</v>
       </c>
       <c r="D8">
-        <v>70.848799999999997</v>
+        <v>49.989899999999999</v>
       </c>
       <c r="E8">
-        <v>1664</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>3.1328275672E-5</v>
+        <v>2.2104975287000002E-5</v>
       </c>
       <c r="H8">
-        <v>3.2742953323853997E-2</v>
+        <v>2.3282468798398001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>25025000703</v>
+        <v>25025010600</v>
       </c>
       <c r="C9">
-        <v>1916064.65</v>
+        <v>3654163.73</v>
       </c>
       <c r="D9">
-        <v>43.986800000000002</v>
+        <v>83.888099999999994</v>
       </c>
       <c r="E9">
-        <v>1083</v>
+        <v>699</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>1.9450947918999999E-5</v>
+        <v>3.7093132205999998E-5</v>
       </c>
       <c r="H9">
-        <v>2.5366890098239E-2</v>
+        <v>3.3558626416506997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>25025000504</v>
+        <v>25025010500</v>
       </c>
       <c r="C10">
-        <v>3586159.72</v>
+        <v>2137658.0499999998</v>
       </c>
       <c r="D10">
-        <v>82.326899999999995</v>
+        <v>49.073900000000002</v>
       </c>
       <c r="E10">
-        <v>1123</v>
+        <v>1074</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
-        <v>3.6399346002000002E-5</v>
+        <v>2.1698279286999999E-5</v>
       </c>
       <c r="H10">
-        <v>3.4292127951418998E-2</v>
+        <v>2.0843738727314001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>25025981501</v>
+      </c>
+      <c r="C11">
+        <v>9855271.1999999993</v>
+      </c>
+      <c r="D11">
+        <v>226.24590000000001</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>25025000704</v>
-      </c>
-      <c r="C11">
-        <v>2580833.98</v>
-      </c>
-      <c r="D11">
-        <v>59.247799999999998</v>
-      </c>
-      <c r="E11">
-        <v>1928</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.6198822389E-5</v>
+      <c r="G11">
+        <v>1.00061316786E-4</v>
       </c>
       <c r="H11">
-        <v>2.210225508705E-2</v>
+        <v>0.30147341928031801</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>25025010103</v>
+        <v>25025981700</v>
       </c>
       <c r="C12">
-        <v>2938702.47</v>
+        <v>3549169.38</v>
       </c>
       <c r="D12">
-        <v>67.463300000000004</v>
+        <v>81.477699999999999</v>
       </c>
       <c r="E12">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>2.9831541091999998E-5</v>
+        <v>3.6031326967999999E-5</v>
       </c>
       <c r="H12">
-        <v>3.4155628312262001E-2</v>
+        <v>2.6562058865741998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B13">
-        <v>25025000803</v>
+        <v>25025020101</v>
       </c>
       <c r="C13">
-        <v>12465804.76</v>
+        <v>2401692.52</v>
       </c>
       <c r="D13">
-        <v>286.1755</v>
+        <v>55.135300000000001</v>
       </c>
       <c r="E13">
-        <v>2649</v>
+        <v>411</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>1.2656281350399999E-4</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.4383233852E-5</v>
       </c>
       <c r="H13">
-        <v>8.2055459162949998E-2</v>
+        <v>2.5813049514255001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B14">
-        <v>25025980300</v>
+        <v>25025010403</v>
       </c>
       <c r="C14">
-        <v>22640579.760000002</v>
+        <v>953147.47</v>
       </c>
       <c r="D14">
-        <v>519.75620000000004</v>
+        <v>21.8813</v>
       </c>
       <c r="E14">
-        <v>191</v>
+        <v>1317</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>2.2966186443099999E-4</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.6749399549999997E-6</v>
       </c>
       <c r="H14">
-        <v>6.6547956564812993E-2</v>
+        <v>1.3280593666105E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>25025120201</v>
+        <v>25025000504</v>
       </c>
       <c r="C15">
-        <v>7743687.5300000003</v>
+        <v>3586159.72</v>
       </c>
       <c r="D15">
-        <v>177.7706</v>
+        <v>82.326899999999995</v>
       </c>
       <c r="E15">
-        <v>1536</v>
+        <v>1123</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>7.8553548042999998E-5</v>
+        <v>3.6399346002000002E-5</v>
       </c>
       <c r="H15">
-        <v>4.0206443173003002E-2</v>
+        <v>3.4292127951418998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>25025120104</v>
+        <v>25025000302</v>
       </c>
       <c r="C16">
-        <v>3124502.39</v>
+        <v>6845240.1100000003</v>
       </c>
       <c r="D16">
-        <v>71.728700000000003</v>
+        <v>157.14510000000001</v>
       </c>
       <c r="E16">
-        <v>736</v>
+        <v>847</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1">
-        <v>3.1695858963999999E-5</v>
+        <v>6.9484476975999998E-5</v>
       </c>
       <c r="H16">
-        <v>2.7106744802985999E-2</v>
+        <v>3.9591694265378001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>25025110607</v>
+        <v>25025000301</v>
       </c>
       <c r="C17">
-        <v>12606722.98</v>
+        <v>6159816.0700000003</v>
       </c>
       <c r="D17">
-        <v>289.41050000000001</v>
+        <v>141.40989999999999</v>
       </c>
       <c r="E17">
-        <v>992</v>
+        <v>690</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>1.2785550365499999E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.2534156944E-5</v>
       </c>
       <c r="H17">
-        <v>6.7185524049743997E-2</v>
+        <v>3.8715436489653997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>25025000302</v>
+        <v>25025000503</v>
       </c>
       <c r="C18">
-        <v>6845240.1100000003</v>
+        <v>1497746.66</v>
       </c>
       <c r="D18">
-        <v>157.14510000000001</v>
+        <v>34.383499999999998</v>
       </c>
       <c r="E18">
-        <v>847</v>
+        <v>472</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1">
-        <v>6.9484476975999998E-5</v>
+        <v>1.520162022E-5</v>
       </c>
       <c r="H18">
-        <v>3.9591694265378001E-2</v>
+        <v>1.9129795597043999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>25025000301</v>
+        <v>25025000802</v>
       </c>
       <c r="C19">
-        <v>6159816.0700000003</v>
+        <v>10520753.59</v>
       </c>
       <c r="D19">
-        <v>141.40989999999999</v>
+        <v>241.52330000000001</v>
       </c>
       <c r="E19">
-        <v>690</v>
+        <v>3844</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1">
-        <v>6.2534156944E-5</v>
+      <c r="G19">
+        <v>1.06810742233E-4</v>
       </c>
       <c r="H19">
-        <v>3.8715436489653997E-2</v>
+        <v>7.2405517311157006E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>25025140400</v>
+        <v>25025000701</v>
       </c>
       <c r="C20">
-        <v>20351684.25</v>
+        <v>2480202.83</v>
       </c>
       <c r="D20">
-        <v>467.21039999999999</v>
+        <v>56.937600000000003</v>
       </c>
       <c r="E20">
-        <v>6984</v>
+        <v>1396</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>2.0633637401500001E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.5176088949999998E-5</v>
       </c>
       <c r="H20">
-        <v>8.8299857686182995E-2</v>
+        <v>2.3056171488549E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>25025140102</v>
+        <v>25025000602</v>
       </c>
       <c r="C21">
-        <v>23198637.859999999</v>
+        <v>6455495.7699999996</v>
       </c>
       <c r="D21">
-        <v>532.56740000000002</v>
+        <v>148.1978</v>
       </c>
       <c r="E21">
-        <v>2702</v>
+        <v>1837</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>2.35113947053E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.5530906505000002E-5</v>
       </c>
       <c r="H21">
-        <v>8.9336904762404995E-2</v>
+        <v>3.9888981131746E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>25025100601</v>
+        <v>25025000601</v>
       </c>
       <c r="C22">
-        <v>5947564.5899999999</v>
+        <v>5328243.45</v>
       </c>
       <c r="D22">
-        <v>136.53729999999999</v>
+        <v>122.31959999999999</v>
       </c>
       <c r="E22">
-        <v>3052</v>
+        <v>1091</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1">
-        <v>6.031987208E-5</v>
+        <v>5.4090060366999999E-5</v>
       </c>
       <c r="H22">
-        <v>3.7459926849643999E-2</v>
+        <v>5.1823362917918003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B23">
-        <v>25025100500</v>
+        <v>25025000502</v>
       </c>
       <c r="C23">
-        <v>9244789.6099999994</v>
+        <v>12898832.449999999</v>
       </c>
       <c r="D23">
-        <v>212.2312</v>
+        <v>296.1164</v>
       </c>
       <c r="E23">
-        <v>5193</v>
+        <v>1584</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1">
-        <v>9.3756337013000001E-5</v>
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>1.3091207744200001E-4</v>
       </c>
       <c r="H23">
-        <v>4.6814378467216998E-2</v>
+        <v>6.2241807928890003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>25025130402</v>
+        <v>25025000402</v>
       </c>
       <c r="C24">
-        <v>24463363.16</v>
+        <v>8683342.1300000008</v>
       </c>
       <c r="D24">
-        <v>561.60149999999999</v>
+        <v>199.34209999999999</v>
       </c>
       <c r="E24">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>2.4803608675800002E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8.8139199709000006E-5</v>
       </c>
       <c r="H24">
-        <v>8.6373821558367994E-2</v>
+        <v>3.8641320247375002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B25">
-        <v>25025130300</v>
+        <v>25025000401</v>
       </c>
       <c r="C25">
-        <v>15522347.970000001</v>
+        <v>4639384.0999999996</v>
       </c>
       <c r="D25">
-        <v>356.34410000000003</v>
+        <v>106.5056</v>
       </c>
       <c r="E25">
-        <v>742</v>
+        <v>1583</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>1.5739802712000001E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.7091257337999997E-5</v>
       </c>
       <c r="H25">
-        <v>5.7901839904091E-2</v>
+        <v>3.1094361145368999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B26">
-        <v>25025130200</v>
+        <v>25025000202</v>
       </c>
       <c r="C26">
-        <v>14558816.720000001</v>
+        <v>6475526.5700000003</v>
       </c>
       <c r="D26">
-        <v>334.2244</v>
+        <v>148.6576</v>
       </c>
       <c r="E26">
-        <v>593</v>
+        <v>1515</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>1.4764662907899999E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6.5737674918999998E-5</v>
       </c>
       <c r="H26">
-        <v>5.9031824936016997E-2</v>
+        <v>4.1904847710345E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B27">
-        <v>25025130100</v>
+        <v>25025000201</v>
       </c>
       <c r="C27">
-        <v>47252103.119999997</v>
+        <v>6451197.1299999999</v>
       </c>
       <c r="D27">
-        <v>1084.759</v>
+        <v>148.09909999999999</v>
       </c>
       <c r="E27">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>4.7921948714999999E-4</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.5492180730000006E-5</v>
       </c>
       <c r="H27">
-        <v>0.116501548193121</v>
+        <v>4.2385932886092999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B28">
-        <v>25025120700</v>
+        <v>25025000100</v>
       </c>
       <c r="C28">
-        <v>3201881.94</v>
+        <v>19319283.079999998</v>
       </c>
       <c r="D28">
-        <v>73.505099999999999</v>
+        <v>443.50970000000001</v>
       </c>
       <c r="E28">
-        <v>747</v>
+        <v>1746</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3.2490222044999997E-5</v>
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>1.9615092944800001E-4</v>
       </c>
       <c r="H28">
-        <v>3.2861172391611002E-2</v>
+        <v>9.4964281205202006E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B29">
-        <v>25025120600</v>
+        <v>25025040100</v>
       </c>
       <c r="C29">
-        <v>2779177.05</v>
+        <v>2791324.87</v>
       </c>
       <c r="D29">
-        <v>63.801099999999998</v>
+        <v>64.08</v>
       </c>
       <c r="E29">
-        <v>584</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1">
-        <v>2.8198675639999999E-5</v>
+        <v>2.8345860564000001E-5</v>
       </c>
       <c r="H29">
-        <v>2.1098512651235E-2</v>
+        <v>3.0421164279921E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B30">
-        <v>25025120500</v>
+        <v>25025040600</v>
       </c>
       <c r="C30">
-        <v>2300163.94</v>
+        <v>15428730.630000001</v>
       </c>
       <c r="D30">
-        <v>52.804499999999997</v>
+        <v>354.19490000000002</v>
       </c>
       <c r="E30">
-        <v>1567</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2.3338986498E-5</v>
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>1.56700822931E-4</v>
       </c>
       <c r="H30">
-        <v>2.5156714598360001E-2</v>
+        <v>0.110420663480057</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B31">
-        <v>25025120400</v>
+        <v>25025040401</v>
       </c>
       <c r="C31">
-        <v>10751638.6</v>
+        <v>4652086.45</v>
       </c>
       <c r="D31">
-        <v>246.8237</v>
+        <v>106.7972</v>
       </c>
       <c r="E31">
-        <v>1407</v>
+        <v>437</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31">
-        <v>1.09081731048E-4</v>
+        <v>23</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.7242550185000002E-5</v>
       </c>
       <c r="H31">
-        <v>5.7517340812419999E-2</v>
+        <v>4.6402078711951997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B32">
-        <v>25025110601</v>
+        <v>25025040801</v>
       </c>
       <c r="C32">
-        <v>15228405.800000001</v>
+        <v>10251246.560000001</v>
       </c>
       <c r="D32">
-        <v>349.59609999999998</v>
+        <v>235.33619999999999</v>
       </c>
       <c r="E32">
-        <v>389</v>
+        <v>1761</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G32">
-        <v>1.5445801169500001E-4</v>
+        <v>1.04110402679E-4</v>
       </c>
       <c r="H32">
-        <v>5.5378128655056001E-2</v>
+        <v>0.13084712853476099</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B33">
-        <v>25025110502</v>
+        <v>25025040300</v>
       </c>
       <c r="C33">
-        <v>7365204.5499999998</v>
+        <v>3014756.67</v>
       </c>
       <c r="D33">
-        <v>169.08179999999999</v>
+        <v>69.209299999999999</v>
       </c>
       <c r="E33">
-        <v>1736</v>
+        <v>713</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G33" s="1">
-        <v>7.4688261958999998E-5</v>
+        <v>3.0617407159999999E-5</v>
       </c>
       <c r="H33">
-        <v>4.0239564940954001E-2</v>
+        <v>3.1656684832324998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B34">
-        <v>25025110501</v>
+        <v>25025040200</v>
       </c>
       <c r="C34">
-        <v>6972865.5099999998</v>
+        <v>1545294.9</v>
       </c>
       <c r="D34">
-        <v>160.07499999999999</v>
+        <v>35.475099999999998</v>
       </c>
       <c r="E34">
-        <v>954</v>
+        <v>745</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1">
-        <v>7.0708835395000004E-5</v>
+        <v>1.5693320225E-5</v>
       </c>
       <c r="H34">
-        <v>3.6727275736666003E-2</v>
+        <v>2.329861193676E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>25025110401</v>
+        <v>25025100601</v>
       </c>
       <c r="C35">
-        <v>5623201.0800000001</v>
+        <v>5947564.5899999999</v>
       </c>
       <c r="D35">
-        <v>129.0909</v>
+        <v>136.53729999999999</v>
       </c>
       <c r="E35">
-        <v>2449</v>
+        <v>3052</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>5.7026266243999997E-5</v>
+        <v>6.031987208E-5</v>
       </c>
       <c r="H35">
-        <v>3.198731846511E-2</v>
+        <v>3.7459926849643999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>25025101001</v>
+        <v>25025100500</v>
       </c>
       <c r="C36">
-        <v>14014997.85</v>
+        <v>9244789.6099999994</v>
       </c>
       <c r="D36">
-        <v>321.74009999999998</v>
+        <v>212.2312</v>
       </c>
       <c r="E36">
-        <v>5347</v>
+        <v>5193</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36">
-        <v>1.4209792379899999E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G36" s="1">
+        <v>9.3756337013000001E-5</v>
       </c>
       <c r="H36">
-        <v>6.2095682851433E-2</v>
+        <v>4.6814378467216998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B37">
-        <v>25025981600</v>
+        <v>25025981201</v>
       </c>
       <c r="C37">
-        <v>6512223.54</v>
+        <v>8466782.8599999994</v>
       </c>
       <c r="D37">
-        <v>149.5001</v>
+        <v>194.3706</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>6.6147294622000003E-5</v>
+        <v>8.5922730233999999E-5</v>
       </c>
       <c r="H37">
-        <v>6.8197165728883E-2</v>
+        <v>0.14820746841056201</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B38">
-        <v>25025051101</v>
+        <v>25025092300</v>
       </c>
       <c r="C38">
-        <v>12481789.43</v>
+        <v>3691503.3</v>
       </c>
       <c r="D38">
-        <v>286.54250000000002</v>
+        <v>84.7453</v>
       </c>
       <c r="E38">
-        <v>2904</v>
+        <v>2846</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38">
-        <v>1.2678135422499999E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.7440833644000003E-5</v>
       </c>
       <c r="H38">
-        <v>9.2788038109912999E-2</v>
+        <v>2.4861869911336001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B39">
-        <v>25025051000</v>
+        <v>25025092200</v>
       </c>
       <c r="C39">
-        <v>11241128.119999999</v>
+        <v>6256656.21</v>
       </c>
       <c r="D39">
-        <v>258.06079999999997</v>
+        <v>143.63310000000001</v>
       </c>
       <c r="E39">
-        <v>1873</v>
+        <v>2609</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39">
-        <v>1.14176530423E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.3458792961000005E-5</v>
       </c>
       <c r="H39">
-        <v>6.5259048967975006E-2</v>
+        <v>3.5939225499547998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B40">
-        <v>25025030400</v>
+        <v>25025092000</v>
       </c>
       <c r="C40">
-        <v>1169226.18</v>
+        <v>5271120.79</v>
       </c>
       <c r="D40">
-        <v>26.841699999999999</v>
+        <v>121.00830000000001</v>
       </c>
       <c r="E40">
-        <v>198</v>
+        <v>4687</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>1.1871836159000001E-5</v>
+        <v>5.3466763131000001E-5</v>
       </c>
       <c r="H40">
-        <v>1.9281417562374999E-2</v>
+        <v>3.8110564648524997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B41">
-        <v>25025030300</v>
+        <v>25025091900</v>
       </c>
       <c r="C41">
-        <v>7441425.2000000002</v>
+        <v>5187639.74</v>
       </c>
       <c r="D41">
-        <v>170.83160000000001</v>
+        <v>119.09180000000001</v>
       </c>
       <c r="E41">
-        <v>884</v>
+        <v>3766</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>7.5552203107999994E-5</v>
+        <v>5.262095017E-5</v>
       </c>
       <c r="H41">
-        <v>7.2261943205002996E-2</v>
+        <v>3.0155859622428002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B42">
-        <v>25025981300</v>
+        <v>25025091800</v>
       </c>
       <c r="C42">
-        <v>77303253.629999995</v>
+        <v>4650342.47</v>
       </c>
       <c r="D42">
-        <v>1774.6385</v>
+        <v>106.7572</v>
       </c>
       <c r="E42">
-        <v>131</v>
+        <v>3320</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42">
-        <v>7.8490658217299995E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.7175650032000003E-5</v>
       </c>
       <c r="H42">
-        <v>0.18860215009710901</v>
+        <v>2.9307006155611999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B43">
-        <v>25025110103</v>
+        <v>25025091700</v>
       </c>
       <c r="C43">
-        <v>10064472.960000001</v>
+        <v>3114052.12</v>
       </c>
       <c r="D43">
-        <v>231.04849999999999</v>
+        <v>71.488799999999998</v>
       </c>
       <c r="E43">
-        <v>3322</v>
+        <v>2869</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43">
-        <v>1.0208181286E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.1588831936999999E-5</v>
       </c>
       <c r="H43">
-        <v>7.7397611672780003E-2</v>
+        <v>2.9940840526629001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B44">
-        <v>25025110301</v>
+        <v>25025091600</v>
       </c>
       <c r="C44">
-        <v>8803506.2200000007</v>
+        <v>3365584.51</v>
       </c>
       <c r="D44">
-        <v>202.10069999999999</v>
+        <v>77.263199999999998</v>
       </c>
       <c r="E44">
-        <v>1450</v>
+        <v>2753</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>8.9279034710999995E-5</v>
+        <v>3.4141656818999997E-5</v>
       </c>
       <c r="H44">
-        <v>4.6575556362345998E-2</v>
+        <v>3.2357309187041002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B45">
-        <v>25025140106</v>
+        <v>25025100700</v>
       </c>
       <c r="C45">
-        <v>3045619.77</v>
+        <v>13058453.75</v>
       </c>
       <c r="D45">
-        <v>69.9178</v>
+        <v>299.7808</v>
       </c>
       <c r="E45">
-        <v>1623</v>
+        <v>475</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3.0880863891999998E-5</v>
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>1.3242129280800001E-4</v>
       </c>
       <c r="H45">
-        <v>2.4782408086591001E-2</v>
+        <v>6.1585584962016E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B46">
-        <v>25025010701</v>
+        <v>25025100603</v>
       </c>
       <c r="C46">
-        <v>2177562.16</v>
+        <v>9541179.8100000005</v>
       </c>
       <c r="D46">
-        <v>49.989899999999999</v>
+        <v>219.03530000000001</v>
       </c>
       <c r="E46">
-        <v>469</v>
+        <v>590</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>2.2104975287000002E-5</v>
+        <v>9.6765678499999999E-5</v>
       </c>
       <c r="H46">
-        <v>2.3282468798398001E-2</v>
+        <v>7.4203799591236005E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B47">
-        <v>25025010408</v>
+        <v>25025092101</v>
       </c>
       <c r="C47">
-        <v>466915.08</v>
+        <v>13905650.859999999</v>
       </c>
       <c r="D47">
-        <v>10.7189</v>
+        <v>319.22980000000001</v>
       </c>
       <c r="E47">
-        <v>412</v>
+        <v>4545</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1">
-        <v>4.7392882119999997E-6</v>
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>1.4104659494500001E-4</v>
       </c>
       <c r="H47">
-        <v>8.8818774714170007E-3</v>
+        <v>6.1461592412502E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B48">
-        <v>25025000503</v>
+        <v>25025061101</v>
       </c>
       <c r="C48">
-        <v>1497746.66</v>
+        <v>1778928.98</v>
       </c>
       <c r="D48">
-        <v>34.383499999999998</v>
+        <v>40.8386</v>
       </c>
       <c r="E48">
-        <v>472</v>
+        <v>1783</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>1.520162022E-5</v>
+        <v>1.8051770433E-5</v>
       </c>
       <c r="H48">
-        <v>1.9129795597043999E-2</v>
+        <v>2.0834478607807998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="B49">
-        <v>25025030200</v>
+        <v>25025091001</v>
       </c>
       <c r="C49">
-        <v>718033.85</v>
+        <v>12771750.15</v>
       </c>
       <c r="D49">
-        <v>16.483799999999999</v>
+        <v>293.19900000000001</v>
       </c>
       <c r="E49">
-        <v>142</v>
+        <v>1143</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="1">
-        <v>7.2906260299999999E-6</v>
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>1.29569851602E-4</v>
       </c>
       <c r="H49">
-        <v>1.3622671680532999E-2</v>
+        <v>9.1888765470653E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B50">
-        <v>25025030100</v>
+        <v>25025091500</v>
       </c>
       <c r="C50">
-        <v>821725.44</v>
+        <v>4350093.55</v>
       </c>
       <c r="D50">
-        <v>18.8642</v>
+        <v>99.864400000000003</v>
       </c>
       <c r="E50">
-        <v>136</v>
+        <v>3963</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>8.3437843019999997E-6</v>
+        <v>4.4132606716000001E-5</v>
       </c>
       <c r="H50">
-        <v>1.3062327230955E-2</v>
+        <v>2.9805206466855999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B51">
-        <v>25025020200</v>
+        <v>25025091200</v>
       </c>
       <c r="C51">
-        <v>1258118.25</v>
+        <v>3483077.78</v>
       </c>
       <c r="D51">
-        <v>28.882400000000001</v>
+        <v>79.960499999999996</v>
       </c>
       <c r="E51">
-        <v>610</v>
+        <v>2253</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>1.2773593728E-5</v>
+        <v>3.5339211436000003E-5</v>
       </c>
       <c r="H51">
-        <v>1.8248942942056E-2</v>
+        <v>2.8351216670298E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B52">
-        <v>25025010600</v>
+        <v>25025091100</v>
       </c>
       <c r="C52">
-        <v>3654163.73</v>
+        <v>4562470.46</v>
       </c>
       <c r="D52">
-        <v>83.888099999999994</v>
+        <v>104.73990000000001</v>
       </c>
       <c r="E52">
-        <v>699</v>
+        <v>2601</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>3.7093132205999998E-5</v>
+        <v>4.6290207264000002E-5</v>
       </c>
       <c r="H52">
-        <v>3.3558626416506997E-2</v>
+        <v>2.8562803349407001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B53">
-        <v>25025010500</v>
+        <v>25025090901</v>
       </c>
       <c r="C53">
-        <v>2137658.0499999998</v>
+        <v>12625816.75</v>
       </c>
       <c r="D53">
-        <v>49.073900000000002</v>
+        <v>289.84890000000001</v>
       </c>
       <c r="E53">
-        <v>1074</v>
+        <v>2330</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2.1698279286999999E-5</v>
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>1.28102397751E-4</v>
       </c>
       <c r="H53">
-        <v>2.0843738727314001E-2</v>
+        <v>5.2483799696625998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>25025010300</v>
+        <v>25025981600</v>
       </c>
       <c r="C54">
-        <v>5480700.0599999996</v>
+        <v>6512223.54</v>
       </c>
       <c r="D54">
-        <v>125.81959999999999</v>
+        <v>149.5001</v>
       </c>
       <c r="E54">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G54" s="1">
-        <v>5.5627061854999998E-5</v>
+        <v>6.6147294622000003E-5</v>
       </c>
       <c r="H54">
-        <v>4.1621184499999998E-2</v>
+        <v>6.8197165728883E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>25025000802</v>
+        <v>25025051101</v>
       </c>
       <c r="C55">
-        <v>10520753.59</v>
+        <v>12481789.43</v>
       </c>
       <c r="D55">
-        <v>241.52330000000001</v>
+        <v>286.54250000000002</v>
       </c>
       <c r="E55">
-        <v>3844</v>
+        <v>2904</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G55">
-        <v>1.06810742233E-4</v>
+        <v>1.2678135422499999E-4</v>
       </c>
       <c r="H55">
-        <v>7.2405517311157006E-2</v>
+        <v>9.2788038109912999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>25025000701</v>
+        <v>25025051000</v>
       </c>
       <c r="C56">
-        <v>2480202.83</v>
+        <v>11241128.119999999</v>
       </c>
       <c r="D56">
-        <v>56.937600000000003</v>
+        <v>258.06079999999997</v>
       </c>
       <c r="E56">
-        <v>1396</v>
+        <v>1873</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2.5176088949999998E-5</v>
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <v>1.14176530423E-4</v>
       </c>
       <c r="H56">
-        <v>2.3056171488549E-2</v>
+        <v>6.5259048967975006E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>25025981201</v>
+        <v>25025981300</v>
       </c>
       <c r="C57">
-        <v>8466782.8599999994</v>
+        <v>77303253.629999995</v>
       </c>
       <c r="D57">
-        <v>194.3706</v>
+        <v>1774.6385</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="1">
-        <v>8.5922730233999999E-5</v>
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>7.8490658217299995E-4</v>
       </c>
       <c r="H57">
-        <v>0.14820746841056201</v>
+        <v>0.18860215009710901</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B58">
-        <v>25025981501</v>
+        <v>25025050101</v>
       </c>
       <c r="C58">
-        <v>9855271.1999999993</v>
+        <v>3226514.74</v>
       </c>
       <c r="D58">
-        <v>226.24590000000001</v>
+        <v>74.070599999999999</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>3687</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>1.00061316786E-4</v>
+        <v>17</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3.2769063977999999E-5</v>
       </c>
       <c r="H58">
-        <v>0.30147341928031801</v>
+        <v>4.2397305543756002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B59">
-        <v>25025981700</v>
+        <v>25025050901</v>
       </c>
       <c r="C59">
-        <v>3549169.38</v>
+        <v>6618679.3499999996</v>
       </c>
       <c r="D59">
-        <v>81.477699999999999</v>
+        <v>151.94399999999999</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2950</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="1">
-        <v>3.6031326967999999E-5</v>
+        <v>6.7221395878000004E-5</v>
       </c>
       <c r="H59">
-        <v>2.6562058865741998E-2</v>
+        <v>6.7752118964478997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B60">
-        <v>25025981800</v>
+        <v>25025981502</v>
       </c>
       <c r="C60">
-        <v>11806322.09</v>
+        <v>13774214.08</v>
       </c>
       <c r="D60">
-        <v>271.03590000000003</v>
+        <v>316.2124</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G60">
-        <v>1.19809493048E-4</v>
+        <v>1.39928130624E-4</v>
       </c>
       <c r="H60">
-        <v>0.127828891065495</v>
+        <v>6.0570014362960001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="B61">
-        <v>25025081200</v>
+        <v>25025051200</v>
       </c>
       <c r="C61">
-        <v>3039251.67</v>
+        <v>4435460.51</v>
       </c>
       <c r="D61">
-        <v>69.771600000000007</v>
+        <v>101.8242</v>
       </c>
       <c r="E61">
-        <v>2872</v>
+        <v>1030</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G61" s="1">
-        <v>3.0840061638999998E-5</v>
+        <v>4.5036285320000001E-5</v>
       </c>
       <c r="H61">
-        <v>2.7054234030051E-2</v>
+        <v>6.9175513333528005E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="B62">
-        <v>25025081100</v>
+        <v>25025050700</v>
       </c>
       <c r="C62">
-        <v>5337204.78</v>
+        <v>2924637.13</v>
       </c>
       <c r="D62">
-        <v>122.5254</v>
+        <v>67.1404</v>
       </c>
       <c r="E62">
-        <v>2138</v>
+        <v>3279</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G62" s="1">
-        <v>5.4161296569000002E-5</v>
+        <v>2.9700554785E-5</v>
       </c>
       <c r="H62">
-        <v>4.9836070002799999E-2</v>
+        <v>2.8426059240853001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B63">
-        <v>25025080900</v>
+        <v>25025050600</v>
       </c>
       <c r="C63">
-        <v>2762558.85</v>
+        <v>1821435.1</v>
       </c>
       <c r="D63">
-        <v>63.419600000000003</v>
+        <v>41.814399999999999</v>
       </c>
       <c r="E63">
-        <v>1407</v>
+        <v>1540</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G63" s="1">
-        <v>2.8035847304999998E-5</v>
+        <v>1.8496235478000001E-5</v>
       </c>
       <c r="H63">
-        <v>2.6789354834533E-2</v>
+        <v>2.0259269448874E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="B64">
-        <v>25025080801</v>
+        <v>25025050500</v>
       </c>
       <c r="C64">
-        <v>3925348.89</v>
+        <v>1235330</v>
       </c>
       <c r="D64">
-        <v>90.113600000000005</v>
+        <v>28.359300000000001</v>
       </c>
       <c r="E64">
-        <v>2627</v>
+        <v>1147</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G64" s="1">
-        <v>3.9837851215000001E-5</v>
+        <v>1.2544068365E-5</v>
       </c>
       <c r="H64">
-        <v>2.6755070179249E-2</v>
+        <v>1.4792936822467E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B65">
-        <v>25025080601</v>
+        <v>25025050400</v>
       </c>
       <c r="C65">
-        <v>6029101.2000000002</v>
+        <v>1420513.59</v>
       </c>
       <c r="D65">
-        <v>138.4091</v>
+        <v>32.610500000000002</v>
       </c>
       <c r="E65">
-        <v>2125</v>
+        <v>1437</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G65" s="1">
-        <v>6.1187304792999998E-5</v>
+        <v>1.4424158097999999E-5</v>
       </c>
       <c r="H65">
-        <v>5.6339788842176997E-2</v>
+        <v>1.8323943037466001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B66">
-        <v>25025080500</v>
+        <v>25025050300</v>
       </c>
       <c r="C66">
-        <v>2643088.91</v>
+        <v>3824484.97</v>
       </c>
       <c r="D66">
-        <v>60.677</v>
+        <v>87.798100000000005</v>
       </c>
       <c r="E66">
-        <v>2863</v>
+        <v>1601</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G66" s="1">
-        <v>2.6824799688999999E-5</v>
+        <v>3.8837022906000001E-5</v>
       </c>
       <c r="H66">
-        <v>2.6295858218231001E-2</v>
+        <v>6.8313565714418004E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="B67">
-        <v>25025080401</v>
+        <v>25025050200</v>
       </c>
       <c r="C67">
-        <v>4740788.83</v>
+        <v>2618361.16</v>
       </c>
       <c r="D67">
-        <v>108.8335</v>
+        <v>60.109299999999998</v>
       </c>
       <c r="E67">
-        <v>2510</v>
+        <v>3878</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G67" s="1">
-        <v>4.8111747532999999E-5</v>
+        <v>2.6591226517999999E-5</v>
       </c>
       <c r="H67">
-        <v>4.1414669785968999E-2</v>
+        <v>3.1509607609092001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>25025080300</v>
+        <v>25025010404</v>
       </c>
       <c r="C68">
-        <v>2893472.78</v>
+        <v>1472713.92</v>
       </c>
       <c r="D68">
-        <v>66.424999999999997</v>
+        <v>33.808900000000001</v>
       </c>
       <c r="E68">
-        <v>1686</v>
+        <v>1749</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G68" s="1">
-        <v>2.9362186891000002E-5</v>
+        <v>1.494808436E-5</v>
       </c>
       <c r="H68">
-        <v>2.7321904653979E-2</v>
+        <v>1.7437192143295002E-2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>25025071101</v>
+        <v>25025010204</v>
       </c>
       <c r="C69">
-        <v>3904559.5</v>
+        <v>2741497.18</v>
       </c>
       <c r="D69">
-        <v>89.636399999999995</v>
+        <v>62.936100000000003</v>
       </c>
       <c r="E69">
-        <v>1916</v>
+        <v>1039</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G69" s="1">
-        <v>3.9627672983000001E-5</v>
+        <v>2.7828138435E-5</v>
       </c>
       <c r="H69">
-        <v>2.9742203946819E-2</v>
+        <v>2.5103492344747999E-2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>25025070900</v>
+        <v>25025010103</v>
       </c>
       <c r="C70">
-        <v>1802491.05</v>
+        <v>2938702.47</v>
       </c>
       <c r="D70">
-        <v>41.3795</v>
+        <v>67.463300000000004</v>
       </c>
       <c r="E70">
-        <v>1847</v>
+        <v>1995</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1">
-        <v>1.8294325920000001E-5</v>
+        <v>2.9831541091999998E-5</v>
       </c>
       <c r="H70">
-        <v>1.8656731310761999E-2</v>
+        <v>3.4155628312262001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>25025100100</v>
+        <v>25025000803</v>
       </c>
       <c r="C71">
-        <v>11170897.960000001</v>
+        <v>12465804.76</v>
       </c>
       <c r="D71">
-        <v>256.44850000000002</v>
+        <v>286.1755</v>
       </c>
       <c r="E71">
-        <v>5453</v>
+        <v>2649</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G71">
-        <v>1.13293447185E-4</v>
+        <v>1.2656281350399999E-4</v>
       </c>
       <c r="H71">
-        <v>4.7456001029089E-2</v>
+        <v>8.2055459162949998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B72">
-        <v>25025092400</v>
+        <v>25025010408</v>
       </c>
       <c r="C72">
-        <v>6393422.5300000003</v>
+        <v>466915.08</v>
       </c>
       <c r="D72">
-        <v>146.77279999999999</v>
+        <v>10.7189</v>
       </c>
       <c r="E72">
-        <v>5221</v>
+        <v>412</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G72" s="1">
-        <v>6.4846991276E-5</v>
+        <v>4.7392882119999997E-6</v>
       </c>
       <c r="H72">
-        <v>4.2662873929049001E-2</v>
+        <v>8.8818774714170007E-3</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="B73">
-        <v>25025092300</v>
+        <v>25025010203</v>
       </c>
       <c r="C73">
-        <v>3691503.3</v>
+        <v>3942467.47</v>
       </c>
       <c r="D73">
-        <v>84.7453</v>
+        <v>90.506600000000006</v>
       </c>
       <c r="E73">
-        <v>2846</v>
+        <v>1964</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G73" s="1">
-        <v>3.7440833644000003E-5</v>
+        <v>4.0017886265000001E-5</v>
       </c>
       <c r="H73">
-        <v>2.4861869911336001E-2</v>
+        <v>3.7534025691926001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>25025092200</v>
+        <v>25025980300</v>
       </c>
       <c r="C74">
-        <v>6256656.21</v>
+        <v>22640579.760000002</v>
       </c>
       <c r="D74">
-        <v>143.63310000000001</v>
+        <v>519.75620000000004</v>
       </c>
       <c r="E74">
-        <v>2609</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="1">
-        <v>6.3458792961000005E-5</v>
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>2.2966186443099999E-4</v>
       </c>
       <c r="H74">
-        <v>3.5939225499547998E-2</v>
+        <v>6.6547956564812993E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>25025092000</v>
+        <v>25025120201</v>
       </c>
       <c r="C75">
-        <v>5271120.79</v>
+        <v>7743687.5300000003</v>
       </c>
       <c r="D75">
-        <v>121.00830000000001</v>
+        <v>177.7706</v>
       </c>
       <c r="E75">
-        <v>4687</v>
+        <v>1536</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G75" s="1">
-        <v>5.3466763131000001E-5</v>
+        <v>7.8553548042999998E-5</v>
       </c>
       <c r="H75">
-        <v>3.8110564648524997E-2</v>
+        <v>4.0206443173003002E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>25025091900</v>
+        <v>25025120104</v>
       </c>
       <c r="C76">
-        <v>5187639.74</v>
+        <v>3124502.39</v>
       </c>
       <c r="D76">
-        <v>119.09180000000001</v>
+        <v>71.728700000000003</v>
       </c>
       <c r="E76">
-        <v>3766</v>
+        <v>736</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G76" s="1">
-        <v>5.262095017E-5</v>
+        <v>3.1695858963999999E-5</v>
       </c>
       <c r="H76">
-        <v>3.0155859622428002E-2</v>
+        <v>2.7106744802985999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B77">
-        <v>25025091800</v>
+        <v>25025120700</v>
       </c>
       <c r="C77">
-        <v>4650342.47</v>
+        <v>3201881.94</v>
       </c>
       <c r="D77">
-        <v>106.7572</v>
+        <v>73.505099999999999</v>
       </c>
       <c r="E77">
-        <v>3320</v>
+        <v>747</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G77" s="1">
-        <v>4.7175650032000003E-5</v>
+        <v>3.2490222044999997E-5</v>
       </c>
       <c r="H77">
-        <v>2.9307006155611999E-2</v>
+        <v>3.2861172391611002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B78">
-        <v>25025091700</v>
+        <v>25025120600</v>
       </c>
       <c r="C78">
-        <v>3114052.12</v>
+        <v>2779177.05</v>
       </c>
       <c r="D78">
-        <v>71.488799999999998</v>
+        <v>63.801099999999998</v>
       </c>
       <c r="E78">
-        <v>2869</v>
+        <v>584</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G78" s="1">
-        <v>3.1588831936999999E-5</v>
+        <v>2.8198675639999999E-5</v>
       </c>
       <c r="H78">
-        <v>2.9940840526629001E-2</v>
+        <v>2.1098512651235E-2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B79">
-        <v>25025091600</v>
+        <v>25025120500</v>
       </c>
       <c r="C79">
-        <v>3365584.51</v>
+        <v>2300163.94</v>
       </c>
       <c r="D79">
-        <v>77.263199999999998</v>
+        <v>52.804499999999997</v>
       </c>
       <c r="E79">
-        <v>2753</v>
+        <v>1567</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G79" s="1">
-        <v>3.4141656818999997E-5</v>
+        <v>2.3338986498E-5</v>
       </c>
       <c r="H79">
-        <v>3.2357309187041002E-2</v>
+        <v>2.5156714598360001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B80">
-        <v>25025050101</v>
+        <v>25025120400</v>
       </c>
       <c r="C80">
-        <v>3226514.74</v>
+        <v>10751638.6</v>
       </c>
       <c r="D80">
-        <v>74.070599999999999</v>
+        <v>246.8237</v>
       </c>
       <c r="E80">
-        <v>3687</v>
+        <v>1407</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="1">
-        <v>3.2769063977999999E-5</v>
+        <v>13</v>
+      </c>
+      <c r="G80">
+        <v>1.09081731048E-4</v>
       </c>
       <c r="H80">
-        <v>4.2397305543756002E-2</v>
+        <v>5.7517340812419999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B81">
-        <v>25025050901</v>
+        <v>25025981800</v>
       </c>
       <c r="C81">
-        <v>6618679.3499999996</v>
+        <v>11806322.09</v>
       </c>
       <c r="D81">
-        <v>151.94399999999999</v>
+        <v>271.03590000000003</v>
       </c>
       <c r="E81">
-        <v>2950</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="1">
-        <v>6.7221395878000004E-5</v>
+        <v>13</v>
+      </c>
+      <c r="G81">
+        <v>1.19809493048E-4</v>
       </c>
       <c r="H81">
-        <v>6.7752118964478997E-2</v>
+        <v>0.127828891065495</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>25025060501</v>
+        <v>25025081200</v>
       </c>
       <c r="C82">
-        <v>4431658.04</v>
+        <v>3039251.67</v>
       </c>
       <c r="D82">
-        <v>101.73690000000001</v>
+        <v>69.771600000000007</v>
       </c>
       <c r="E82">
-        <v>228</v>
+        <v>2872</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G82" s="1">
-        <v>4.4977917158999999E-5</v>
+        <v>3.0840061638999998E-5</v>
       </c>
       <c r="H82">
-        <v>4.0815973343211E-2</v>
+        <v>2.7054234030051E-2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B83">
-        <v>25025130404</v>
+        <v>25025081100</v>
       </c>
       <c r="C83">
-        <v>17628731.82</v>
+        <v>5337204.78</v>
       </c>
       <c r="D83">
-        <v>404.7</v>
+        <v>122.5254</v>
       </c>
       <c r="E83">
-        <v>847</v>
+        <v>2138</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83">
-        <v>1.7872735300899999E-4</v>
+        <v>13</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5.4161296569000002E-5</v>
       </c>
       <c r="H83">
-        <v>5.7927033715210997E-2</v>
+        <v>4.9836070002799999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B84">
-        <v>25025981202</v>
+        <v>25025120103</v>
       </c>
       <c r="C84">
-        <v>17165825.449999999</v>
+        <v>3802045.27</v>
       </c>
       <c r="D84">
-        <v>394.07310000000001</v>
+        <v>87.282899999999998</v>
       </c>
       <c r="E84">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84">
-        <v>1.74234567974E-4</v>
+        <v>13</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3.8572700315999997E-5</v>
       </c>
       <c r="H84">
-        <v>0.17719313141471901</v>
+        <v>2.5426199544089999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B85">
-        <v>25025040100</v>
+        <v>25025120105</v>
       </c>
       <c r="C85">
-        <v>2791324.87</v>
+        <v>19809165.829999998</v>
       </c>
       <c r="D85">
-        <v>64.08</v>
+        <v>454.7559</v>
       </c>
       <c r="E85">
-        <v>116</v>
+        <v>554</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="1">
-        <v>2.8345860564000001E-5</v>
+        <v>13</v>
+      </c>
+      <c r="G85">
+        <v>2.00961358407E-4</v>
       </c>
       <c r="H85">
-        <v>3.0421164279921E-2</v>
+        <v>7.9516202476855993E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B86">
-        <v>25025040600</v>
+        <v>25025120301</v>
       </c>
       <c r="C86">
-        <v>15428730.630000001</v>
+        <v>7135172.5700000003</v>
       </c>
       <c r="D86">
-        <v>354.19490000000002</v>
+        <v>163.80099999999999</v>
       </c>
       <c r="E86">
-        <v>209</v>
+        <v>2887</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86">
-        <v>1.56700822931E-4</v>
+        <v>13</v>
+      </c>
+      <c r="G86" s="1">
+        <v>7.2389107097999998E-5</v>
       </c>
       <c r="H86">
-        <v>0.110420663480057</v>
+        <v>4.0522683874539001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="B87">
-        <v>25025000602</v>
+        <v>25025081400</v>
       </c>
       <c r="C87">
-        <v>6455495.7699999996</v>
+        <v>6678367.0700000003</v>
       </c>
       <c r="D87">
-        <v>148.1978</v>
+        <v>153.3142</v>
       </c>
       <c r="E87">
-        <v>1837</v>
+        <v>2318</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" s="1">
-        <v>6.5530906505000002E-5</v>
+        <v>6.7770605432999995E-5</v>
       </c>
       <c r="H87">
-        <v>3.9888981131746E-2</v>
+        <v>4.8306124534056E-2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B88">
-        <v>25025000601</v>
+        <v>25025081300</v>
       </c>
       <c r="C88">
-        <v>5328243.45</v>
+        <v>6246271.6100000003</v>
       </c>
       <c r="D88">
-        <v>122.31959999999999</v>
+        <v>143.3947</v>
       </c>
       <c r="E88">
-        <v>1091</v>
+        <v>4461</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" s="1">
-        <v>5.4090060366999999E-5</v>
+        <v>6.3377461361999995E-5</v>
       </c>
       <c r="H88">
-        <v>5.1823362917918003E-2</v>
+        <v>4.2401854358574999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B89">
-        <v>25025000502</v>
+        <v>25025070101</v>
       </c>
       <c r="C89">
-        <v>12898832.449999999</v>
+        <v>10969123.93</v>
       </c>
       <c r="D89">
-        <v>296.1164</v>
+        <v>251.81639999999999</v>
       </c>
       <c r="E89">
-        <v>1584</v>
+        <v>2378</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G89">
-        <v>1.3091207744200001E-4</v>
+        <v>1.11355678282E-4</v>
       </c>
       <c r="H89">
-        <v>6.2241807928890003E-2</v>
+        <v>5.4916474155415999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B90">
-        <v>25025000402</v>
+        <v>25025010300</v>
       </c>
       <c r="C90">
-        <v>8683342.1300000008</v>
+        <v>5480700.0599999996</v>
       </c>
       <c r="D90">
-        <v>199.34209999999999</v>
+        <v>125.81959999999999</v>
       </c>
       <c r="E90">
-        <v>914</v>
+        <v>1480</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G90" s="1">
-        <v>8.8139199709000006E-5</v>
+        <v>5.5627061854999998E-5</v>
       </c>
       <c r="H90">
-        <v>3.8641320247375002E-2</v>
+        <v>4.1621184499999998E-2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>25025130406</v>
+        <v>25025010405</v>
       </c>
       <c r="C91">
-        <v>11351426.76</v>
+        <v>3914567.54</v>
       </c>
       <c r="D91">
-        <v>260.59289999999999</v>
+        <v>89.866100000000003</v>
       </c>
       <c r="E91">
-        <v>3513</v>
+        <v>1755</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91">
-        <v>1.15070298606E-4</v>
+        <v>8</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3.9731689710999999E-5</v>
       </c>
       <c r="H91">
-        <v>5.6603070460133999E-2</v>
+        <v>4.6606703233607001E-2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B92">
-        <v>25025120103</v>
+        <v>25025080900</v>
       </c>
       <c r="C92">
-        <v>3802045.27</v>
+        <v>2762558.85</v>
       </c>
       <c r="D92">
-        <v>87.282899999999998</v>
+        <v>63.419600000000003</v>
       </c>
       <c r="E92">
-        <v>238</v>
+        <v>1407</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G92" s="1">
-        <v>3.8572700315999997E-5</v>
+        <v>2.8035847304999998E-5</v>
       </c>
       <c r="H92">
-        <v>2.5426199544089999E-2</v>
+        <v>2.6789354834533E-2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B93">
-        <v>25025100700</v>
+        <v>25025080801</v>
       </c>
       <c r="C93">
-        <v>13058453.75</v>
+        <v>3925348.89</v>
       </c>
       <c r="D93">
-        <v>299.7808</v>
+        <v>90.113600000000005</v>
       </c>
       <c r="E93">
-        <v>475</v>
+        <v>2627</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93">
-        <v>1.3242129280800001E-4</v>
+        <v>8</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3.9837851215000001E-5</v>
       </c>
       <c r="H93">
-        <v>6.1585584962016E-2</v>
+        <v>2.6755070179249E-2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B94">
-        <v>25025100603</v>
+        <v>25025080601</v>
       </c>
       <c r="C94">
-        <v>9541179.8100000005</v>
+        <v>6029101.2000000002</v>
       </c>
       <c r="D94">
-        <v>219.03530000000001</v>
+        <v>138.4091</v>
       </c>
       <c r="E94">
-        <v>590</v>
+        <v>2125</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G94" s="1">
-        <v>9.6765678499999999E-5</v>
+        <v>6.1187304792999998E-5</v>
       </c>
       <c r="H94">
-        <v>7.4203799591236005E-2</v>
+        <v>5.6339788842176997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B95">
-        <v>25025092101</v>
+        <v>25025081001</v>
       </c>
       <c r="C95">
-        <v>13905650.859999999</v>
+        <v>6011081.9900000002</v>
       </c>
       <c r="D95">
-        <v>319.22980000000001</v>
+        <v>137.99549999999999</v>
       </c>
       <c r="E95">
-        <v>4545</v>
+        <v>2710</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95">
-        <v>1.4104659494500001E-4</v>
+        <v>8</v>
+      </c>
+      <c r="G95" s="1">
+        <v>6.1005630604999997E-5</v>
       </c>
       <c r="H95">
-        <v>6.1461592412502E-2</v>
+        <v>5.4715447356667002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B96">
-        <v>25025061101</v>
+        <v>25025030400</v>
       </c>
       <c r="C96">
-        <v>1778928.98</v>
+        <v>1169226.18</v>
       </c>
       <c r="D96">
-        <v>40.8386</v>
+        <v>26.841699999999999</v>
       </c>
       <c r="E96">
-        <v>1783</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" s="1">
-        <v>1.8051770433E-5</v>
+        <v>1.1871836159000001E-5</v>
       </c>
       <c r="H96">
-        <v>2.0834478607807998E-2</v>
+        <v>1.9281417562374999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B97">
-        <v>25025070800</v>
+        <v>25025030300</v>
       </c>
       <c r="C97">
-        <v>2092259.14</v>
+        <v>7441425.2000000002</v>
       </c>
       <c r="D97">
-        <v>48.031700000000001</v>
+        <v>170.83160000000001</v>
       </c>
       <c r="E97">
-        <v>1399</v>
+        <v>884</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G97" s="1">
-        <v>2.1236218395999999E-5</v>
+        <v>7.5552203107999994E-5</v>
       </c>
       <c r="H97">
-        <v>1.9891600471923999E-2</v>
+        <v>7.2261943205002996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B98">
-        <v>25025070700</v>
+        <v>25025030200</v>
       </c>
       <c r="C98">
-        <v>1766562.81</v>
+        <v>718033.85</v>
       </c>
       <c r="D98">
-        <v>40.554699999999997</v>
+        <v>16.483799999999999</v>
       </c>
       <c r="E98">
-        <v>1074</v>
+        <v>142</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G98" s="1">
-        <v>1.7931746006000001E-5</v>
+        <v>7.2906260299999999E-6</v>
       </c>
       <c r="H98">
-        <v>2.3717543729934999E-2</v>
+        <v>1.3622671680532999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B99">
-        <v>25025070600</v>
+        <v>25025030100</v>
       </c>
       <c r="C99">
-        <v>1426485.77</v>
+        <v>821725.44</v>
       </c>
       <c r="D99">
-        <v>32.747599999999998</v>
+        <v>18.8642</v>
       </c>
       <c r="E99">
-        <v>402</v>
+        <v>136</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G99" s="1">
-        <v>1.447915581E-5</v>
+        <v>8.3437843019999997E-6</v>
       </c>
       <c r="H99">
-        <v>1.8925617570222E-2</v>
+        <v>1.3062327230955E-2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B100">
-        <v>25025070500</v>
+        <v>25025020303</v>
       </c>
       <c r="C100">
-        <v>3199661.22</v>
+        <v>4830892.13</v>
       </c>
       <c r="D100">
-        <v>73.454099999999997</v>
+        <v>110.902</v>
       </c>
       <c r="E100">
-        <v>2498</v>
+        <v>1353</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G100" s="1">
-        <v>3.2476640696000003E-5</v>
+        <v>4.9051747513000001E-5</v>
       </c>
       <c r="H100">
-        <v>3.1037770260738999E-2</v>
+        <v>4.7793230190801998E-2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="B101">
-        <v>25025000401</v>
+        <v>25025030500</v>
       </c>
       <c r="C101">
-        <v>4639384.0999999996</v>
+        <v>2052881.84</v>
       </c>
       <c r="D101">
-        <v>106.5056</v>
+        <v>47.127699999999997</v>
       </c>
       <c r="E101">
-        <v>1583</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G101" s="1">
-        <v>4.7091257337999997E-5</v>
+        <v>2.0844907115E-5</v>
       </c>
       <c r="H101">
-        <v>3.1094361145368999E-2</v>
+        <v>4.5188475680265003E-2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="B102">
-        <v>25025000202</v>
+        <v>25025110607</v>
       </c>
       <c r="C102">
-        <v>6475526.5700000003</v>
+        <v>12606722.98</v>
       </c>
       <c r="D102">
-        <v>148.6576</v>
+        <v>289.41050000000001</v>
       </c>
       <c r="E102">
-        <v>1515</v>
+        <v>992</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="1">
-        <v>6.5737674918999998E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G102">
+        <v>1.2785550365499999E-4</v>
       </c>
       <c r="H102">
-        <v>4.1904847710345E-2</v>
+        <v>6.7185524049743997E-2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B103">
-        <v>25025000201</v>
+        <v>25025140400</v>
       </c>
       <c r="C103">
-        <v>6451197.1299999999</v>
+        <v>20351684.25</v>
       </c>
       <c r="D103">
-        <v>148.09909999999999</v>
+        <v>467.21039999999999</v>
       </c>
       <c r="E103">
-        <v>1126</v>
+        <v>6984</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="1">
-        <v>6.5492180730000006E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G103">
+        <v>2.0633637401500001E-4</v>
       </c>
       <c r="H103">
-        <v>4.2385932886092999E-2</v>
+        <v>8.8299857686182995E-2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B104">
-        <v>25025981100</v>
+        <v>25025130300</v>
       </c>
       <c r="C104">
-        <v>29412396.210000001</v>
+        <v>15522347.970000001</v>
       </c>
       <c r="D104">
-        <v>675.21569999999997</v>
+        <v>356.34410000000003</v>
       </c>
       <c r="E104">
-        <v>334</v>
+        <v>742</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
       </c>
       <c r="G104">
-        <v>2.98285355886E-4</v>
+        <v>1.5739802712000001E-4</v>
       </c>
       <c r="H104">
-        <v>9.7497377541589006E-2</v>
+        <v>5.7901839904091E-2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="B105">
-        <v>25025140105</v>
+        <v>25025130200</v>
       </c>
       <c r="C105">
-        <v>10880533</v>
+        <v>14558816.720000001</v>
       </c>
       <c r="D105">
-        <v>249.78270000000001</v>
+        <v>334.2244</v>
       </c>
       <c r="E105">
-        <v>2370</v>
+        <v>593</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
       </c>
       <c r="G105">
-        <v>1.10310453892E-4</v>
+        <v>1.4764662907899999E-4</v>
       </c>
       <c r="H105">
-        <v>4.4894380069708001E-2</v>
+        <v>5.9031824936016997E-2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B106">
-        <v>25025980700</v>
+        <v>25025110601</v>
       </c>
       <c r="C106">
-        <v>31654255.199999999</v>
+        <v>15228405.800000001</v>
       </c>
       <c r="D106">
-        <v>726.68169999999998</v>
+        <v>349.59609999999998</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106">
-        <v>3.2090119000500002E-4</v>
+        <v>1.5445801169500001E-4</v>
       </c>
       <c r="H106">
-        <v>0.12742194659787301</v>
+        <v>5.5378128655056001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B107">
-        <v>25025120105</v>
+        <v>25025110502</v>
       </c>
       <c r="C107">
-        <v>19809165.829999998</v>
+        <v>7365204.5499999998</v>
       </c>
       <c r="D107">
-        <v>454.7559</v>
+        <v>169.08179999999999</v>
       </c>
       <c r="E107">
-        <v>554</v>
+        <v>1736</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107">
-        <v>2.00961358407E-4</v>
+        <v>14</v>
+      </c>
+      <c r="G107" s="1">
+        <v>7.4688261958999998E-5</v>
       </c>
       <c r="H107">
-        <v>7.9516202476855993E-2</v>
+        <v>4.0239564940954001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B108">
-        <v>25025061200</v>
+        <v>25025110501</v>
       </c>
       <c r="C108">
-        <v>19820250.559999999</v>
+        <v>6972865.5099999998</v>
       </c>
       <c r="D108">
-        <v>455.01029999999997</v>
+        <v>160.07499999999999</v>
       </c>
       <c r="E108">
-        <v>497</v>
+        <v>954</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108">
-        <v>2.0116772749700001E-4</v>
+        <v>14</v>
+      </c>
+      <c r="G108" s="1">
+        <v>7.0708835395000004E-5</v>
       </c>
       <c r="H108">
-        <v>7.9030818552841997E-2</v>
+        <v>3.6727275736666003E-2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B109">
-        <v>25025061000</v>
+        <v>25025110401</v>
       </c>
       <c r="C109">
-        <v>1862434.17</v>
+        <v>5623201.0800000001</v>
       </c>
       <c r="D109">
-        <v>42.755600000000001</v>
+        <v>129.0909</v>
       </c>
       <c r="E109">
-        <v>1814</v>
+        <v>2449</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1">
-        <v>1.8900711740000001E-5</v>
+        <v>5.7026266243999997E-5</v>
       </c>
       <c r="H109">
-        <v>1.8864067579945999E-2</v>
+        <v>3.198731846511E-2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B110">
-        <v>25025060800</v>
+        <v>25025101001</v>
       </c>
       <c r="C110">
-        <v>3672689.59</v>
+        <v>14014997.85</v>
       </c>
       <c r="D110">
-        <v>84.313400000000001</v>
+        <v>321.74009999999998</v>
       </c>
       <c r="E110">
-        <v>387</v>
+        <v>5347</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" s="1">
-        <v>3.7274082965999999E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G110">
+        <v>1.4209792379899999E-4</v>
       </c>
       <c r="H110">
-        <v>3.0296446484030001E-2</v>
+        <v>6.2095682851433E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="B111">
-        <v>25025060700</v>
+        <v>25025110103</v>
       </c>
       <c r="C111">
-        <v>1380119.54</v>
+        <v>10064472.960000001</v>
       </c>
       <c r="D111">
-        <v>31.683199999999999</v>
+        <v>231.04849999999999</v>
       </c>
       <c r="E111">
-        <v>1539</v>
+        <v>3322</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" s="1">
-        <v>1.4007501132E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G111">
+        <v>1.0208181286E-4</v>
       </c>
       <c r="H111">
-        <v>1.5586835240993E-2</v>
+        <v>7.7397611672780003E-2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="B112">
-        <v>25025040401</v>
+        <v>25025110301</v>
       </c>
       <c r="C112">
-        <v>4652086.45</v>
+        <v>8803506.2200000007</v>
       </c>
       <c r="D112">
-        <v>106.7972</v>
+        <v>202.10069999999999</v>
       </c>
       <c r="E112">
-        <v>437</v>
+        <v>1450</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G112" s="1">
-        <v>4.7242550185000002E-5</v>
+        <v>8.9279034710999995E-5</v>
       </c>
       <c r="H112">
-        <v>4.6402078711951997E-2</v>
+        <v>4.6575556362345998E-2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="B113">
-        <v>25025020303</v>
+        <v>25025140106</v>
       </c>
       <c r="C113">
-        <v>4830892.13</v>
+        <v>3045619.77</v>
       </c>
       <c r="D113">
-        <v>110.902</v>
+        <v>69.9178</v>
       </c>
       <c r="E113">
-        <v>1353</v>
+        <v>1623</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G113" s="1">
-        <v>4.9051747513000001E-5</v>
+        <v>3.0880863891999998E-5</v>
       </c>
       <c r="H113">
-        <v>4.7793230190801998E-2</v>
+        <v>2.4782408086591001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B114">
-        <v>25025020302</v>
+        <v>25025981100</v>
       </c>
       <c r="C114">
-        <v>826400.6</v>
+        <v>29412396.210000001</v>
       </c>
       <c r="D114">
-        <v>18.971499999999999</v>
+        <v>675.21569999999997</v>
       </c>
       <c r="E114">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" s="1">
-        <v>8.3902607989999997E-6</v>
+        <v>14</v>
+      </c>
+      <c r="G114">
+        <v>2.98285355886E-4</v>
       </c>
       <c r="H114">
-        <v>1.2034599709331999E-2</v>
+        <v>9.7497377541589006E-2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B115">
-        <v>25025020301</v>
+        <v>25025140105</v>
       </c>
       <c r="C115">
-        <v>2761716.23</v>
+        <v>10880533</v>
       </c>
       <c r="D115">
-        <v>63.400300000000001</v>
+        <v>249.78270000000001</v>
       </c>
       <c r="E115">
-        <v>620</v>
+        <v>2370</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" s="1">
-        <v>2.8040871168000002E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G115">
+        <v>1.10310453892E-4</v>
       </c>
       <c r="H115">
-        <v>3.5367995965821998E-2</v>
+        <v>4.4894380069708001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B116">
-        <v>25025020101</v>
+        <v>25025980700</v>
       </c>
       <c r="C116">
-        <v>2401692.52</v>
+        <v>31654255.199999999</v>
       </c>
       <c r="D116">
-        <v>55.135300000000001</v>
+        <v>726.68169999999998</v>
       </c>
       <c r="E116">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="1">
-        <v>2.4383233852E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G116">
+        <v>3.2090119000500002E-4</v>
       </c>
       <c r="H116">
-        <v>2.5813049514255001E-2</v>
+        <v>0.12742194659787301</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B117">
-        <v>25025081001</v>
+        <v>25025110403</v>
       </c>
       <c r="C117">
-        <v>6011081.9900000002</v>
+        <v>10231036.380000001</v>
       </c>
       <c r="D117">
-        <v>137.99549999999999</v>
+        <v>234.8723</v>
       </c>
       <c r="E117">
-        <v>2710</v>
+        <v>2161</v>
       </c>
       <c r="F117" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" s="1">
-        <v>6.1005630604999997E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G117">
+        <v>1.03741685971E-4</v>
       </c>
       <c r="H117">
-        <v>5.4715447356667002E-2</v>
+        <v>4.6189716768582002E-2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B118">
-        <v>25025010403</v>
+        <v>25025110201</v>
       </c>
       <c r="C118">
-        <v>953147.47</v>
+        <v>3747839.93</v>
       </c>
       <c r="D118">
-        <v>21.8813</v>
+        <v>86.038600000000002</v>
       </c>
       <c r="E118">
-        <v>1317</v>
+        <v>1640</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1">
-        <v>9.6749399549999997E-6</v>
+        <v>3.8004250533999997E-5</v>
       </c>
       <c r="H118">
-        <v>1.3280593666105E-2</v>
+        <v>3.1912951894166E-2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B119">
-        <v>25025000100</v>
+        <v>25025981000</v>
       </c>
       <c r="C119">
-        <v>19319283.079999998</v>
+        <v>12173242.68</v>
       </c>
       <c r="D119">
-        <v>443.50970000000001</v>
+        <v>279.45920000000001</v>
       </c>
       <c r="E119">
-        <v>1746</v>
+        <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G119">
-        <v>1.9615092944800001E-4</v>
+        <v>1.23475574126E-4</v>
       </c>
       <c r="H119">
-        <v>9.4964281205202006E-2</v>
+        <v>6.2788021506509001E-2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B120">
-        <v>25025120301</v>
+        <v>25025080500</v>
       </c>
       <c r="C120">
-        <v>7135172.5700000003</v>
+        <v>2643088.91</v>
       </c>
       <c r="D120">
-        <v>163.80099999999999</v>
+        <v>60.677</v>
       </c>
       <c r="E120">
-        <v>2887</v>
+        <v>2863</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G120" s="1">
-        <v>7.2389107097999998E-5</v>
+        <v>2.6824799688999999E-5</v>
       </c>
       <c r="H120">
-        <v>4.0522683874539001E-2</v>
+        <v>2.6295858218231001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="B121">
-        <v>25025071201</v>
+        <v>25025080401</v>
       </c>
       <c r="C121">
-        <v>4329260.4800000004</v>
+        <v>4740788.83</v>
       </c>
       <c r="D121">
-        <v>99.386099999999999</v>
+        <v>108.8335</v>
       </c>
       <c r="E121">
-        <v>1913</v>
+        <v>2510</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G121" s="1">
-        <v>4.3940642752000003E-5</v>
+        <v>4.8111747532999999E-5</v>
       </c>
       <c r="H121">
-        <v>3.5872354923818003E-2</v>
+        <v>4.1414669785968999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B122">
-        <v>25025091001</v>
+        <v>25025080300</v>
       </c>
       <c r="C122">
-        <v>12771750.15</v>
+        <v>2893472.78</v>
       </c>
       <c r="D122">
-        <v>293.19900000000001</v>
+        <v>66.424999999999997</v>
       </c>
       <c r="E122">
-        <v>1143</v>
+        <v>1686</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122">
-        <v>1.29569851602E-4</v>
+        <v>21</v>
+      </c>
+      <c r="G122" s="1">
+        <v>2.9362186891000002E-5</v>
       </c>
       <c r="H122">
-        <v>9.1888765470653E-2</v>
+        <v>2.7321904653979E-2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="B123">
-        <v>25025091500</v>
+        <v>25025071101</v>
       </c>
       <c r="C123">
-        <v>4350093.55</v>
+        <v>3904559.5</v>
       </c>
       <c r="D123">
-        <v>99.864400000000003</v>
+        <v>89.636399999999995</v>
       </c>
       <c r="E123">
-        <v>3963</v>
+        <v>1916</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G123" s="1">
-        <v>4.4132606716000001E-5</v>
+        <v>3.9627672983000001E-5</v>
       </c>
       <c r="H123">
-        <v>2.9805206466855999E-2</v>
+        <v>2.9742203946819E-2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B124">
-        <v>25025091400</v>
+        <v>25025070900</v>
       </c>
       <c r="C124">
-        <v>3498284.33</v>
+        <v>1802491.05</v>
       </c>
       <c r="D124">
-        <v>80.309600000000003</v>
+        <v>41.3795</v>
       </c>
       <c r="E124">
-        <v>2545</v>
+        <v>1847</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
       </c>
       <c r="G124" s="1">
-        <v>3.5492911276999998E-5</v>
+        <v>1.8294325920000001E-5</v>
       </c>
       <c r="H124">
-        <v>2.6526792932319E-2</v>
+        <v>1.8656731310761999E-2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B125">
-        <v>25025091300</v>
+        <v>25025100100</v>
       </c>
       <c r="C125">
-        <v>2825980.81</v>
+        <v>11170897.960000001</v>
       </c>
       <c r="D125">
-        <v>64.875600000000006</v>
+        <v>256.44850000000002</v>
       </c>
       <c r="E125">
-        <v>2334</v>
+        <v>5453</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="1">
-        <v>2.8673931511E-5</v>
+      <c r="G125">
+        <v>1.13293447185E-4</v>
       </c>
       <c r="H125">
-        <v>2.6920985662905E-2</v>
+        <v>4.7456001029089E-2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="B126">
-        <v>25025091200</v>
+        <v>25025092400</v>
       </c>
       <c r="C126">
-        <v>3483077.78</v>
+        <v>6393422.5300000003</v>
       </c>
       <c r="D126">
-        <v>79.960499999999996</v>
+        <v>146.77279999999999</v>
       </c>
       <c r="E126">
-        <v>2253</v>
+        <v>5221</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1">
-        <v>3.5339211436000003E-5</v>
+        <v>6.4846991276E-5</v>
       </c>
       <c r="H126">
-        <v>2.8351216670298E-2</v>
+        <v>4.2662873929049001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B127">
-        <v>25025091100</v>
+        <v>25025070800</v>
       </c>
       <c r="C127">
-        <v>4562470.46</v>
+        <v>2092259.14</v>
       </c>
       <c r="D127">
-        <v>104.73990000000001</v>
+        <v>48.031700000000001</v>
       </c>
       <c r="E127">
-        <v>2601</v>
+        <v>1399</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G127" s="1">
-        <v>4.6290207264000002E-5</v>
+        <v>2.1236218395999999E-5</v>
       </c>
       <c r="H127">
-        <v>2.8562803349407001E-2</v>
+        <v>1.9891600471923999E-2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B128">
-        <v>25025090700</v>
+        <v>25025091400</v>
       </c>
       <c r="C128">
-        <v>11544136.43</v>
+        <v>3498284.33</v>
       </c>
       <c r="D128">
-        <v>265.01690000000002</v>
+        <v>80.309600000000003</v>
       </c>
       <c r="E128">
-        <v>1678</v>
+        <v>2545</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
       </c>
-      <c r="G128">
-        <v>1.1714071914E-4</v>
+      <c r="G128" s="1">
+        <v>3.5492911276999998E-5</v>
       </c>
       <c r="H128">
-        <v>4.4662408570019997E-2</v>
+        <v>2.6526792932319E-2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B129">
-        <v>25025090600</v>
+        <v>25025091300</v>
       </c>
       <c r="C129">
-        <v>3246866.13</v>
+        <v>2825980.81</v>
       </c>
       <c r="D129">
-        <v>74.537800000000004</v>
+        <v>64.875600000000006</v>
       </c>
       <c r="E129">
-        <v>2255</v>
+        <v>2334</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
       </c>
       <c r="G129" s="1">
-        <v>3.2946021850999999E-5</v>
+        <v>2.8673931511E-5</v>
       </c>
       <c r="H129">
-        <v>2.9311390381211E-2</v>
+        <v>2.6920985662905E-2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B130">
-        <v>25025090400</v>
+        <v>25025090700</v>
       </c>
       <c r="C130">
-        <v>4575787.71</v>
+        <v>11544136.43</v>
       </c>
       <c r="D130">
-        <v>105.04559999999999</v>
+        <v>265.01690000000002</v>
       </c>
       <c r="E130">
-        <v>3570</v>
+        <v>1678</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="1">
-        <v>4.6426423392E-5</v>
+      <c r="G130">
+        <v>1.1714071914E-4</v>
       </c>
       <c r="H130">
-        <v>3.2228125670903003E-2</v>
+        <v>4.4662408570019997E-2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B131">
-        <v>25025090300</v>
+        <v>25025090600</v>
       </c>
       <c r="C131">
-        <v>4094225.77</v>
+        <v>3246866.13</v>
       </c>
       <c r="D131">
-        <v>93.990499999999997</v>
+        <v>74.537800000000004</v>
       </c>
       <c r="E131">
-        <v>3132</v>
+        <v>2255</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
       </c>
       <c r="G131" s="1">
-        <v>4.1536425753999998E-5</v>
+        <v>3.2946021850999999E-5</v>
       </c>
       <c r="H131">
-        <v>2.9747067376904999E-2</v>
+        <v>2.9311390381211E-2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B132">
-        <v>25025090200</v>
+        <v>25025090400</v>
       </c>
       <c r="C132">
-        <v>2945580.09</v>
+        <v>4575787.71</v>
       </c>
       <c r="D132">
-        <v>67.621200000000002</v>
+        <v>105.04559999999999</v>
       </c>
       <c r="E132">
-        <v>2193</v>
+        <v>3570</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
       </c>
       <c r="G132" s="1">
-        <v>2.9881491086000001E-5</v>
+        <v>4.6426423392E-5</v>
       </c>
       <c r="H132">
-        <v>2.5438437464499E-2</v>
+        <v>3.2228125670903003E-2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B133">
-        <v>25025080100</v>
+        <v>25025090300</v>
       </c>
       <c r="C133">
-        <v>11047170.59</v>
+        <v>4094225.77</v>
       </c>
       <c r="D133">
-        <v>253.60810000000001</v>
+        <v>93.990499999999997</v>
       </c>
       <c r="E133">
-        <v>2834</v>
+        <v>3132</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
       </c>
-      <c r="G133">
-        <v>1.1210703586E-4</v>
+      <c r="G133" s="1">
+        <v>4.1536425753999998E-5</v>
       </c>
       <c r="H133">
-        <v>5.9038917511483997E-2</v>
+        <v>2.9747067376904999E-2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B134">
-        <v>25025060301</v>
+        <v>25025090200</v>
       </c>
       <c r="C134">
-        <v>2933185.1</v>
+        <v>2945580.09</v>
       </c>
       <c r="D134">
-        <v>67.336699999999993</v>
+        <v>67.621200000000002</v>
       </c>
       <c r="E134">
-        <v>107</v>
+        <v>2193</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G134" s="1">
-        <v>2.9767949666000001E-5</v>
+        <v>2.9881491086000001E-5</v>
       </c>
       <c r="H134">
-        <v>2.8776031108454E-2</v>
+        <v>2.5438437464499E-2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B135">
-        <v>25025090901</v>
+        <v>25025080100</v>
       </c>
       <c r="C135">
-        <v>12625816.75</v>
+        <v>11047170.59</v>
       </c>
       <c r="D135">
-        <v>289.84890000000001</v>
+        <v>253.60810000000001</v>
       </c>
       <c r="E135">
-        <v>2330</v>
+        <v>2834</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G135">
-        <v>1.28102397751E-4</v>
+        <v>1.1210703586E-4</v>
       </c>
       <c r="H135">
-        <v>5.2483799696625998E-2</v>
+        <v>5.9038917511483997E-2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B136">
-        <v>25025060101</v>
+        <v>25025090100</v>
       </c>
       <c r="C136">
-        <v>3181825.6</v>
+        <v>4811070.9800000004</v>
       </c>
       <c r="D136">
-        <v>73.044700000000006</v>
+        <v>110.447</v>
       </c>
       <c r="E136">
-        <v>101</v>
+        <v>4485</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G136" s="1">
-        <v>3.2291990485000001E-5</v>
+        <v>4.8802381290999999E-5</v>
       </c>
       <c r="H136">
-        <v>2.5715036243789E-2</v>
+        <v>3.1604262365736997E-2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B137">
-        <v>25025981502</v>
+        <v>25025082100</v>
       </c>
       <c r="C137">
-        <v>13774214.08</v>
+        <v>3988567.24</v>
       </c>
       <c r="D137">
-        <v>316.2124</v>
+        <v>91.564899999999994</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>4963</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137">
-        <v>1.39928130624E-4</v>
+        <v>21</v>
+      </c>
+      <c r="G137" s="1">
+        <v>4.0463556584000001E-5</v>
       </c>
       <c r="H137">
-        <v>6.0570014362960001E-2</v>
+        <v>2.7439615194947999E-2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B138">
-        <v>25025060600</v>
+        <v>25025082000</v>
       </c>
       <c r="C138">
-        <v>13571977.550000001</v>
+        <v>4220856.09</v>
       </c>
       <c r="D138">
-        <v>311.56970000000001</v>
+        <v>96.897499999999994</v>
       </c>
       <c r="E138">
-        <v>318</v>
+        <v>2763</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138">
-        <v>1.3776707448200001E-4</v>
+        <v>21</v>
+      </c>
+      <c r="G138" s="1">
+        <v>4.2822969960999999E-5</v>
       </c>
       <c r="H138">
-        <v>0.102629393971979</v>
+        <v>2.735077360763E-2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B139">
-        <v>25025060400</v>
+        <v>25025081900</v>
       </c>
       <c r="C139">
-        <v>4297519.18</v>
+        <v>4664571.96</v>
       </c>
       <c r="D139">
-        <v>98.657499999999999</v>
+        <v>107.0838</v>
       </c>
       <c r="E139">
-        <v>278</v>
+        <v>3047</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G139" s="1">
-        <v>4.3613426660999998E-5</v>
+        <v>4.7325989967000003E-5</v>
       </c>
       <c r="H139">
-        <v>3.1031270395122001E-2</v>
+        <v>3.7267564169793002E-2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B140">
-        <v>25025060200</v>
+        <v>25025081800</v>
       </c>
       <c r="C140">
-        <v>1833887.31</v>
+        <v>4024571.84</v>
       </c>
       <c r="D140">
-        <v>42.100299999999997</v>
+        <v>92.391499999999994</v>
       </c>
       <c r="E140">
-        <v>32</v>
+        <v>2820</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G140" s="1">
-        <v>1.8611273799000001E-5</v>
+        <v>4.0835739277E-5</v>
       </c>
       <c r="H140">
-        <v>2.3831268027914999E-2</v>
+        <v>3.0773745300002001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B141">
-        <v>25025040801</v>
+        <v>25025081700</v>
       </c>
       <c r="C141">
-        <v>10251246.560000001</v>
+        <v>6819156.25</v>
       </c>
       <c r="D141">
-        <v>235.33619999999999</v>
+        <v>156.5463</v>
       </c>
       <c r="E141">
-        <v>1761</v>
+        <v>3746</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141">
-        <v>1.04110402679E-4</v>
+        <v>21</v>
+      </c>
+      <c r="G141" s="1">
+        <v>6.9193844378000001E-5</v>
       </c>
       <c r="H141">
-        <v>0.13084712853476099</v>
+        <v>3.6230014765374997E-2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B142">
-        <v>25025010203</v>
+        <v>25025081500</v>
       </c>
       <c r="C142">
-        <v>3942467.47</v>
+        <v>3619583.13</v>
       </c>
       <c r="D142">
-        <v>90.506600000000006</v>
+        <v>83.094200000000001</v>
       </c>
       <c r="E142">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="F142" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G142" s="1">
-        <v>4.0017886265000001E-5</v>
+        <v>3.6726705604E-5</v>
       </c>
       <c r="H142">
-        <v>3.7534025691926001E-2</v>
+        <v>3.7180224019013997E-2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B143">
-        <v>25025110403</v>
+        <v>25025061000</v>
       </c>
       <c r="C143">
-        <v>10231036.380000001</v>
+        <v>1862434.17</v>
       </c>
       <c r="D143">
-        <v>234.8723</v>
+        <v>42.755600000000001</v>
       </c>
       <c r="E143">
-        <v>2161</v>
+        <v>1814</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143">
-        <v>1.03741685971E-4</v>
+        <v>25</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1.8900711740000001E-5</v>
       </c>
       <c r="H143">
-        <v>4.6189716768582002E-2</v>
+        <v>1.8864067579945999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B144">
-        <v>25025110201</v>
+        <v>25025060800</v>
       </c>
       <c r="C144">
-        <v>3747839.93</v>
+        <v>3672689.59</v>
       </c>
       <c r="D144">
-        <v>86.038600000000002</v>
+        <v>84.313400000000001</v>
       </c>
       <c r="E144">
-        <v>1640</v>
+        <v>387</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G144" s="1">
-        <v>3.8004250533999997E-5</v>
+        <v>3.7274082965999999E-5</v>
       </c>
       <c r="H144">
-        <v>3.1912951894166E-2</v>
+        <v>3.0296446484030001E-2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B145">
-        <v>25025981000</v>
+        <v>25025060700</v>
       </c>
       <c r="C145">
-        <v>12173242.68</v>
+        <v>1380119.54</v>
       </c>
       <c r="D145">
-        <v>279.45920000000001</v>
+        <v>31.683199999999999</v>
       </c>
       <c r="E145">
-        <v>19</v>
+        <v>1539</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145">
-        <v>1.23475574126E-4</v>
+        <v>25</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1.4007501132E-5</v>
       </c>
       <c r="H145">
-        <v>6.2788021506509001E-2</v>
+        <v>1.5586835240993E-2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B146">
-        <v>25025090100</v>
+        <v>25025060301</v>
       </c>
       <c r="C146">
-        <v>4811070.9800000004</v>
+        <v>2933185.1</v>
       </c>
       <c r="D146">
-        <v>110.447</v>
+        <v>67.336699999999993</v>
       </c>
       <c r="E146">
-        <v>4485</v>
+        <v>107</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G146" s="1">
-        <v>4.8802381290999999E-5</v>
+        <v>2.9767949666000001E-5</v>
       </c>
       <c r="H146">
-        <v>3.1604262365736997E-2</v>
+        <v>2.8776031108454E-2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B147">
-        <v>25025082100</v>
+        <v>25025060101</v>
       </c>
       <c r="C147">
-        <v>3988567.24</v>
+        <v>3181825.6</v>
       </c>
       <c r="D147">
-        <v>91.564899999999994</v>
+        <v>73.044700000000006</v>
       </c>
       <c r="E147">
-        <v>4963</v>
+        <v>101</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G147" s="1">
-        <v>4.0463556584000001E-5</v>
+        <v>3.2291990485000001E-5</v>
       </c>
       <c r="H147">
-        <v>2.7439615194947999E-2</v>
+        <v>2.5715036243789E-2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B148">
-        <v>25025082000</v>
+        <v>25025060400</v>
       </c>
       <c r="C148">
-        <v>4220856.09</v>
+        <v>4297519.18</v>
       </c>
       <c r="D148">
-        <v>96.897499999999994</v>
+        <v>98.657499999999999</v>
       </c>
       <c r="E148">
-        <v>2763</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G148" s="1">
-        <v>4.2822969960999999E-5</v>
+        <v>4.3613426660999998E-5</v>
       </c>
       <c r="H148">
-        <v>2.735077360763E-2</v>
+        <v>3.1031270395122001E-2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B149">
-        <v>25025051200</v>
+        <v>25025060200</v>
       </c>
       <c r="C149">
-        <v>4435460.51</v>
+        <v>1833887.31</v>
       </c>
       <c r="D149">
-        <v>101.8242</v>
+        <v>42.100299999999997</v>
       </c>
       <c r="E149">
-        <v>1030</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G149" s="1">
-        <v>4.5036285320000001E-5</v>
+        <v>1.8611273799000001E-5</v>
       </c>
       <c r="H149">
-        <v>6.9175513333528005E-2</v>
+        <v>2.3831268027914999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="B150">
-        <v>25025050700</v>
+        <v>25025060501</v>
       </c>
       <c r="C150">
-        <v>2924637.13</v>
+        <v>4431658.04</v>
       </c>
       <c r="D150">
-        <v>67.1404</v>
+        <v>101.73690000000001</v>
       </c>
       <c r="E150">
-        <v>3279</v>
+        <v>228</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G150" s="1">
-        <v>2.9700554785E-5</v>
+        <v>4.4977917158999999E-5</v>
       </c>
       <c r="H150">
-        <v>2.8426059240853001E-2</v>
+        <v>4.0815973343211E-2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B151">
-        <v>25025050600</v>
+        <v>25025981202</v>
       </c>
       <c r="C151">
-        <v>1821435.1</v>
+        <v>17165825.449999999</v>
       </c>
       <c r="D151">
-        <v>41.814399999999999</v>
+        <v>394.07310000000001</v>
       </c>
       <c r="E151">
-        <v>1540</v>
+        <v>52</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" s="1">
-        <v>1.8496235478000001E-5</v>
+        <v>22</v>
+      </c>
+      <c r="G151">
+        <v>1.74234567974E-4</v>
       </c>
       <c r="H151">
-        <v>2.0259269448874E-2</v>
+        <v>0.17719313141471901</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B152">
-        <v>25025050500</v>
+        <v>25025060600</v>
       </c>
       <c r="C152">
-        <v>1235330</v>
+        <v>13571977.550000001</v>
       </c>
       <c r="D152">
-        <v>28.359300000000001</v>
+        <v>311.56970000000001</v>
       </c>
       <c r="E152">
-        <v>1147</v>
+        <v>318</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" s="1">
-        <v>1.2544068365E-5</v>
+        <v>22</v>
+      </c>
+      <c r="G152">
+        <v>1.3776707448200001E-4</v>
       </c>
       <c r="H152">
-        <v>1.4792936822467E-2</v>
+        <v>0.102629393971979</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B153">
-        <v>25025050400</v>
+        <v>25025070700</v>
       </c>
       <c r="C153">
-        <v>1420513.59</v>
+        <v>1766562.81</v>
       </c>
       <c r="D153">
-        <v>32.610500000000002</v>
+        <v>40.554699999999997</v>
       </c>
       <c r="E153">
-        <v>1437</v>
+        <v>1074</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G153" s="1">
-        <v>1.4424158097999999E-5</v>
+        <v>1.7931746006000001E-5</v>
       </c>
       <c r="H153">
-        <v>1.8323943037466001E-2</v>
+        <v>2.3717543729934999E-2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="B154">
-        <v>25025050300</v>
+        <v>25025070600</v>
       </c>
       <c r="C154">
-        <v>3824484.97</v>
+        <v>1426485.77</v>
       </c>
       <c r="D154">
-        <v>87.798100000000005</v>
+        <v>32.747599999999998</v>
       </c>
       <c r="E154">
-        <v>1601</v>
+        <v>402</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G154" s="1">
-        <v>3.8837022906000001E-5</v>
+        <v>1.447915581E-5</v>
       </c>
       <c r="H154">
-        <v>6.8313565714418004E-2</v>
+        <v>1.8925617570222E-2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="B155">
-        <v>25025050200</v>
+        <v>25025070500</v>
       </c>
       <c r="C155">
-        <v>2618361.16</v>
+        <v>3199661.22</v>
       </c>
       <c r="D155">
-        <v>60.109299999999998</v>
+        <v>73.454099999999997</v>
       </c>
       <c r="E155">
-        <v>3878</v>
+        <v>2498</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G155" s="1">
-        <v>2.6591226517999999E-5</v>
+        <v>3.2476640696000003E-5</v>
       </c>
       <c r="H155">
-        <v>3.1509607609092001E-2</v>
+        <v>3.1037770260738999E-2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B156">
-        <v>25025040300</v>
+        <v>25025061200</v>
       </c>
       <c r="C156">
-        <v>3014756.67</v>
+        <v>19820250.559999999</v>
       </c>
       <c r="D156">
-        <v>69.209299999999999</v>
+        <v>455.01029999999997</v>
       </c>
       <c r="E156">
-        <v>713</v>
+        <v>497</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" s="1">
-        <v>3.0617407159999999E-5</v>
+        <v>24</v>
+      </c>
+      <c r="G156">
+        <v>2.0116772749700001E-4</v>
       </c>
       <c r="H156">
-        <v>3.1656684832324998E-2</v>
+        <v>7.9030818552841997E-2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B157">
-        <v>25025040200</v>
+        <v>25025071201</v>
       </c>
       <c r="C157">
-        <v>1545294.9</v>
+        <v>4329260.4800000004</v>
       </c>
       <c r="D157">
-        <v>35.475099999999998</v>
+        <v>99.386099999999999</v>
       </c>
       <c r="E157">
-        <v>745</v>
+        <v>1913</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G157" s="1">
-        <v>1.5693320225E-5</v>
+        <v>4.3940642752000003E-5</v>
       </c>
       <c r="H157">
-        <v>2.329861193676E-2</v>
+        <v>3.5872354923818003E-2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="B158">
-        <v>25025030500</v>
+        <v>25025020200</v>
       </c>
       <c r="C158">
-        <v>2052881.84</v>
+        <v>1258118.25</v>
       </c>
       <c r="D158">
-        <v>47.127699999999997</v>
+        <v>28.882400000000001</v>
       </c>
       <c r="E158">
-        <v>244</v>
+        <v>610</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G158" s="1">
-        <v>2.0844907115E-5</v>
+        <v>1.2773593728E-5</v>
       </c>
       <c r="H158">
-        <v>4.5188475680265003E-2</v>
+        <v>1.8248942942056E-2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B159">
-        <v>25025081900</v>
+        <v>25025020302</v>
       </c>
       <c r="C159">
-        <v>4664571.96</v>
+        <v>826400.6</v>
       </c>
       <c r="D159">
-        <v>107.0838</v>
+        <v>18.971499999999999</v>
       </c>
       <c r="E159">
-        <v>3047</v>
+        <v>170</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G159" s="1">
-        <v>4.7325989967000003E-5</v>
+        <v>8.3902607989999997E-6</v>
       </c>
       <c r="H159">
-        <v>3.7267564169793002E-2</v>
+        <v>1.2034599709331999E-2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B160">
-        <v>25025081800</v>
+        <v>25025020301</v>
       </c>
       <c r="C160">
-        <v>4024571.84</v>
+        <v>2761716.23</v>
       </c>
       <c r="D160">
-        <v>92.391499999999994</v>
+        <v>63.400300000000001</v>
       </c>
       <c r="E160">
-        <v>2820</v>
+        <v>620</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G160" s="1">
-        <v>4.0835739277E-5</v>
+        <v>2.8040871168000002E-5</v>
       </c>
       <c r="H160">
-        <v>3.0773745300002001E-2</v>
+        <v>3.5367995965821998E-2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="B161">
-        <v>25025081700</v>
+        <v>25025140102</v>
       </c>
       <c r="C161">
-        <v>6819156.25</v>
+        <v>23198637.859999999</v>
       </c>
       <c r="D161">
-        <v>156.5463</v>
+        <v>532.56740000000002</v>
       </c>
       <c r="E161">
-        <v>3746</v>
+        <v>2702</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" s="1">
-        <v>6.9193844378000001E-5</v>
+        <v>15</v>
+      </c>
+      <c r="G161">
+        <v>2.35113947053E-4</v>
       </c>
       <c r="H161">
-        <v>3.6230014765374997E-2</v>
+        <v>8.9336904762404995E-2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="B162">
-        <v>25025081500</v>
+        <v>25025130402</v>
       </c>
       <c r="C162">
-        <v>3619583.13</v>
+        <v>24463363.16</v>
       </c>
       <c r="D162">
-        <v>83.094200000000001</v>
+        <v>561.60149999999999</v>
       </c>
       <c r="E162">
-        <v>1957</v>
+        <v>942</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" s="1">
-        <v>3.6726705604E-5</v>
+        <v>15</v>
+      </c>
+      <c r="G162">
+        <v>2.4803608675800002E-4</v>
       </c>
       <c r="H162">
-        <v>3.7180224019013997E-2</v>
+        <v>8.6373821558367994E-2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="B163">
-        <v>25025081400</v>
+        <v>25025130100</v>
       </c>
       <c r="C163">
-        <v>6678367.0700000003</v>
+        <v>47252103.119999997</v>
       </c>
       <c r="D163">
-        <v>153.3142</v>
+        <v>1084.759</v>
       </c>
       <c r="E163">
-        <v>2318</v>
+        <v>1117</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="1">
-        <v>6.7770605432999995E-5</v>
+        <v>15</v>
+      </c>
+      <c r="G163">
+        <v>4.7921948714999999E-4</v>
       </c>
       <c r="H163">
-        <v>4.8306124534056E-2</v>
+        <v>0.116501548193121</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="B164">
-        <v>25025081300</v>
+        <v>25025130404</v>
       </c>
       <c r="C164">
-        <v>6246271.6100000003</v>
+        <v>17628731.82</v>
       </c>
       <c r="D164">
-        <v>143.3947</v>
+        <v>404.7</v>
       </c>
       <c r="E164">
-        <v>4461</v>
+        <v>847</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="1">
-        <v>6.3377461361999995E-5</v>
+        <v>15</v>
+      </c>
+      <c r="G164">
+        <v>1.7872735300899999E-4</v>
       </c>
       <c r="H164">
-        <v>4.2401854358574999E-2</v>
+        <v>5.7927033715210997E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>102</v>
+      </c>
+      <c r="B165">
+        <v>25025130406</v>
+      </c>
+      <c r="C165">
+        <v>11351426.76</v>
+      </c>
+      <c r="D165">
+        <v>260.59289999999999</v>
+      </c>
+      <c r="E165">
+        <v>3513</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165">
+        <v>1.15070298606E-4</v>
+      </c>
+      <c r="H165">
+        <v>5.6603070460133999E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H164">
-      <sortCondition ref="A1:A164"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H165">
+      <sortCondition ref="F1:F165"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H165">
-    <sortCondition ref="F2:F165"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H165">
+    <sortCondition ref="F3:F165"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boston_Social_Vulnerability.xlsx
+++ b/Boston_Social_Vulnerability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Google Drive/DS 2000/Project/Boston-Redlining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai/Desktop/School/Data Science /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F887EF3B-443F-DB46-9499-2AEF33FD2F6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CED0276-91EA-C147-8984-B4E91C04BBE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1680" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate_Ready_Boston_Social_Vul" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Climate_Ready_Boston_Social_Vul!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="24">
   <si>
     <t>FID</t>
   </si>
@@ -94,16 +92,7 @@
     <t>West End</t>
   </si>
   <si>
-    <t>Longwood Medical Area</t>
-  </si>
-  <si>
     <t>Roxbury</t>
-  </si>
-  <si>
-    <t>South Boston Waterfront</t>
-  </si>
-  <si>
-    <t>Charlestown</t>
   </si>
   <si>
     <t>South End</t>
@@ -112,14 +101,14 @@
     <t>South Boston</t>
   </si>
   <si>
-    <t>Leather District</t>
+    <t>Low_to_No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -954,22 +943,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:P2"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +983,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1020,8 +1012,11 @@
       <c r="H2">
         <v>2.5366890098239E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1046,8 +1041,11 @@
       <c r="H3">
         <v>2.210225508705E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1072,8 +1070,11 @@
       <c r="H4">
         <v>2.1367900526519001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1098,8 +1099,11 @@
       <c r="H5">
         <v>2.6152257947635999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1124,8 +1128,11 @@
       <c r="H6">
         <v>2.2044296764161E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1150,8 +1157,11 @@
       <c r="H7">
         <v>3.2742953323853997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
@@ -1176,8 +1186,11 @@
       <c r="H8">
         <v>2.3282468798398001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>61</v>
       </c>
@@ -1202,8 +1215,11 @@
       <c r="H9">
         <v>3.3558626416506997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>62</v>
       </c>
@@ -1228,8 +1244,11 @@
       <c r="H10">
         <v>2.0843738727314001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>67</v>
       </c>
@@ -1254,8 +1273,11 @@
       <c r="H11">
         <v>0.30147341928031801</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>68</v>
       </c>
@@ -1280,8 +1302,11 @@
       <c r="H12">
         <v>2.6562058865741998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>131</v>
       </c>
@@ -1306,8 +1331,11 @@
       <c r="H13">
         <v>2.5813049514255001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>133</v>
       </c>
@@ -1332,8 +1360,11 @@
       <c r="H14">
         <v>1.3280593666105E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1358,8 +1389,11 @@
       <c r="H15">
         <v>3.4292127951418998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1384,8 +1418,11 @@
       <c r="H16">
         <v>3.9591694265378001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1410,8 +1447,11 @@
       <c r="H17">
         <v>3.8715436489653997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57</v>
       </c>
@@ -1436,8 +1476,11 @@
       <c r="H18">
         <v>1.9129795597043999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64</v>
       </c>
@@ -1462,8 +1505,11 @@
       <c r="H19">
         <v>7.2405517311157006E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>65</v>
       </c>
@@ -1488,8 +1534,11 @@
       <c r="H20">
         <v>2.3056171488549E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>98</v>
       </c>
@@ -1514,8 +1563,11 @@
       <c r="H21">
         <v>3.9888981131746E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="H22">
         <v>5.1823362917918003E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1566,8 +1621,11 @@
       <c r="H23">
         <v>6.2241807928890003E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1592,8 +1650,11 @@
       <c r="H24">
         <v>3.8641320247375002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>113</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="H25">
         <v>3.1094361145368999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>114</v>
       </c>
@@ -1644,8 +1708,11 @@
       <c r="H26">
         <v>4.1904847710345E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>115</v>
       </c>
@@ -1670,8 +1737,11 @@
       <c r="H27">
         <v>4.2385932886092999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>134</v>
       </c>
@@ -1696,3577 +1766,3759 @@
       <c r="H28">
         <v>9.4964281205202006E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>25025040100</v>
+        <v>25025100601</v>
       </c>
       <c r="C29">
-        <v>2791324.87</v>
+        <v>5947564.5899999999</v>
       </c>
       <c r="D29">
-        <v>64.08</v>
+        <v>136.53729999999999</v>
       </c>
       <c r="E29">
-        <v>116</v>
+        <v>3052</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>2.8345860564000001E-5</v>
+        <v>6.031987208E-5</v>
       </c>
       <c r="H29">
-        <v>3.0421164279921E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>3.7459926849643999E-2</v>
+      </c>
+      <c r="I29">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>25025040600</v>
+        <v>25025100500</v>
       </c>
       <c r="C30">
-        <v>15428730.630000001</v>
+        <v>9244789.6099999994</v>
       </c>
       <c r="D30">
-        <v>354.19490000000002</v>
+        <v>212.2312</v>
       </c>
       <c r="E30">
-        <v>209</v>
+        <v>5193</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30">
-        <v>1.56700822931E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9.3756337013000001E-5</v>
       </c>
       <c r="H30">
-        <v>0.110420663480057</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>4.6814378467216998E-2</v>
+      </c>
+      <c r="I30">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B31">
-        <v>25025040401</v>
+        <v>25025981201</v>
       </c>
       <c r="C31">
-        <v>4652086.45</v>
+        <v>8466782.8599999994</v>
       </c>
       <c r="D31">
-        <v>106.7972</v>
+        <v>194.3706</v>
       </c>
       <c r="E31">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>4.7242550185000002E-5</v>
+        <v>8.5922730233999999E-5</v>
       </c>
       <c r="H31">
-        <v>4.6402078711951997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.14820746841056201</v>
+      </c>
+      <c r="I31">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="B32">
-        <v>25025040801</v>
+        <v>25025092300</v>
       </c>
       <c r="C32">
-        <v>10251246.560000001</v>
+        <v>3691503.3</v>
       </c>
       <c r="D32">
-        <v>235.33619999999999</v>
+        <v>84.7453</v>
       </c>
       <c r="E32">
-        <v>1761</v>
+        <v>2846</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32">
-        <v>1.04110402679E-4</v>
+        <v>16</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.7440833644000003E-5</v>
       </c>
       <c r="H32">
-        <v>0.13084712853476099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>2.4861869911336001E-2</v>
+      </c>
+      <c r="I32">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="B33">
-        <v>25025040300</v>
+        <v>25025092200</v>
       </c>
       <c r="C33">
-        <v>3014756.67</v>
+        <v>6256656.21</v>
       </c>
       <c r="D33">
-        <v>69.209299999999999</v>
+        <v>143.63310000000001</v>
       </c>
       <c r="E33">
-        <v>713</v>
+        <v>2609</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>3.0617407159999999E-5</v>
+        <v>6.3458792961000005E-5</v>
       </c>
       <c r="H33">
-        <v>3.1656684832324998E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>3.5939225499547998E-2</v>
+      </c>
+      <c r="I33">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B34">
-        <v>25025040200</v>
+        <v>25025092000</v>
       </c>
       <c r="C34">
-        <v>1545294.9</v>
+        <v>5271120.79</v>
       </c>
       <c r="D34">
-        <v>35.475099999999998</v>
+        <v>121.00830000000001</v>
       </c>
       <c r="E34">
-        <v>745</v>
+        <v>4687</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>1.5693320225E-5</v>
+        <v>5.3466763131000001E-5</v>
       </c>
       <c r="H34">
-        <v>2.329861193676E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>3.8110564648524997E-2</v>
+      </c>
+      <c r="I34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B35">
-        <v>25025100601</v>
+        <v>25025091900</v>
       </c>
       <c r="C35">
-        <v>5947564.5899999999</v>
+        <v>5187639.74</v>
       </c>
       <c r="D35">
-        <v>136.53729999999999</v>
+        <v>119.09180000000001</v>
       </c>
       <c r="E35">
-        <v>3052</v>
+        <v>3766</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>6.031987208E-5</v>
+        <v>5.262095017E-5</v>
       </c>
       <c r="H35">
-        <v>3.7459926849643999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>3.0155859622428002E-2</v>
+      </c>
+      <c r="I35">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B36">
-        <v>25025100500</v>
+        <v>25025091800</v>
       </c>
       <c r="C36">
-        <v>9244789.6099999994</v>
+        <v>4650342.47</v>
       </c>
       <c r="D36">
-        <v>212.2312</v>
+        <v>106.7572</v>
       </c>
       <c r="E36">
-        <v>5193</v>
+        <v>3320</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>9.3756337013000001E-5</v>
+        <v>4.7175650032000003E-5</v>
       </c>
       <c r="H36">
-        <v>4.6814378467216998E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>2.9307006155611999E-2</v>
+      </c>
+      <c r="I36">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B37">
-        <v>25025981201</v>
+        <v>25025091700</v>
       </c>
       <c r="C37">
-        <v>8466782.8599999994</v>
+        <v>3114052.12</v>
       </c>
       <c r="D37">
-        <v>194.3706</v>
+        <v>71.488799999999998</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2869</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>8.5922730233999999E-5</v>
+        <v>3.1588831936999999E-5</v>
       </c>
       <c r="H37">
-        <v>0.14820746841056201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>2.9940840526629001E-2</v>
+      </c>
+      <c r="I37">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B38">
-        <v>25025092300</v>
+        <v>25025091600</v>
       </c>
       <c r="C38">
-        <v>3691503.3</v>
+        <v>3365584.51</v>
       </c>
       <c r="D38">
-        <v>84.7453</v>
+        <v>77.263199999999998</v>
       </c>
       <c r="E38">
-        <v>2846</v>
+        <v>2753</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>3.7440833644000003E-5</v>
+        <v>3.4141656818999997E-5</v>
       </c>
       <c r="H38">
-        <v>2.4861869911336001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>3.2357309187041002E-2</v>
+      </c>
+      <c r="I38">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B39">
-        <v>25025092200</v>
+        <v>25025100700</v>
       </c>
       <c r="C39">
-        <v>6256656.21</v>
+        <v>13058453.75</v>
       </c>
       <c r="D39">
-        <v>143.63310000000001</v>
+        <v>299.7808</v>
       </c>
       <c r="E39">
-        <v>2609</v>
+        <v>475</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="1">
-        <v>6.3458792961000005E-5</v>
+      <c r="G39">
+        <v>1.3242129280800001E-4</v>
       </c>
       <c r="H39">
-        <v>3.5939225499547998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>6.1585584962016E-2</v>
+      </c>
+      <c r="I39">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B40">
-        <v>25025092000</v>
+        <v>25025100603</v>
       </c>
       <c r="C40">
-        <v>5271120.79</v>
+        <v>9541179.8100000005</v>
       </c>
       <c r="D40">
-        <v>121.00830000000001</v>
+        <v>219.03530000000001</v>
       </c>
       <c r="E40">
-        <v>4687</v>
+        <v>590</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>5.3466763131000001E-5</v>
+        <v>9.6765678499999999E-5</v>
       </c>
       <c r="H40">
-        <v>3.8110564648524997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>7.4203799591236005E-2</v>
+      </c>
+      <c r="I40">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B41">
-        <v>25025091900</v>
+        <v>25025092101</v>
       </c>
       <c r="C41">
-        <v>5187639.74</v>
+        <v>13905650.859999999</v>
       </c>
       <c r="D41">
-        <v>119.09180000000001</v>
+        <v>319.22980000000001</v>
       </c>
       <c r="E41">
-        <v>3766</v>
+        <v>4545</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="1">
-        <v>5.262095017E-5</v>
+      <c r="G41">
+        <v>1.4104659494500001E-4</v>
       </c>
       <c r="H41">
-        <v>3.0155859622428002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>6.1461592412502E-2</v>
+      </c>
+      <c r="I41">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B42">
-        <v>25025091800</v>
+        <v>25025061101</v>
       </c>
       <c r="C42">
-        <v>4650342.47</v>
+        <v>1778928.98</v>
       </c>
       <c r="D42">
-        <v>106.7572</v>
+        <v>40.8386</v>
       </c>
       <c r="E42">
-        <v>3320</v>
+        <v>1783</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>4.7175650032000003E-5</v>
+        <v>1.8051770433E-5</v>
       </c>
       <c r="H42">
-        <v>2.9307006155611999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>2.0834478607807998E-2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="B43">
-        <v>25025091700</v>
+        <v>25025091001</v>
       </c>
       <c r="C43">
-        <v>3114052.12</v>
+        <v>12771750.15</v>
       </c>
       <c r="D43">
-        <v>71.488799999999998</v>
+        <v>293.19900000000001</v>
       </c>
       <c r="E43">
-        <v>2869</v>
+        <v>1143</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="1">
-        <v>3.1588831936999999E-5</v>
+      <c r="G43">
+        <v>1.29569851602E-4</v>
       </c>
       <c r="H43">
-        <v>2.9940840526629001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>9.1888765470653E-2</v>
+      </c>
+      <c r="I43">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="B44">
-        <v>25025091600</v>
+        <v>25025091500</v>
       </c>
       <c r="C44">
-        <v>3365584.51</v>
+        <v>4350093.55</v>
       </c>
       <c r="D44">
-        <v>77.263199999999998</v>
+        <v>99.864400000000003</v>
       </c>
       <c r="E44">
-        <v>2753</v>
+        <v>3963</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>3.4141656818999997E-5</v>
+        <v>4.4132606716000001E-5</v>
       </c>
       <c r="H44">
-        <v>3.2357309187041002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>2.9805206466855999E-2</v>
+      </c>
+      <c r="I44">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B45">
-        <v>25025100700</v>
+        <v>25025091200</v>
       </c>
       <c r="C45">
-        <v>13058453.75</v>
+        <v>3483077.78</v>
       </c>
       <c r="D45">
-        <v>299.7808</v>
+        <v>79.960499999999996</v>
       </c>
       <c r="E45">
-        <v>475</v>
+        <v>2253</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
-      <c r="G45">
-        <v>1.3242129280800001E-4</v>
+      <c r="G45" s="1">
+        <v>3.5339211436000003E-5</v>
       </c>
       <c r="H45">
-        <v>6.1585584962016E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>2.8351216670298E-2</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B46">
-        <v>25025100603</v>
+        <v>25025091100</v>
       </c>
       <c r="C46">
-        <v>9541179.8100000005</v>
+        <v>4562470.46</v>
       </c>
       <c r="D46">
-        <v>219.03530000000001</v>
+        <v>104.73990000000001</v>
       </c>
       <c r="E46">
-        <v>590</v>
+        <v>2601</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>9.6765678499999999E-5</v>
+        <v>4.6290207264000002E-5</v>
       </c>
       <c r="H46">
-        <v>7.4203799591236005E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>2.8562803349407001E-2</v>
+      </c>
+      <c r="I46">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B47">
-        <v>25025092101</v>
+        <v>25025090901</v>
       </c>
       <c r="C47">
-        <v>13905650.859999999</v>
+        <v>12625816.75</v>
       </c>
       <c r="D47">
-        <v>319.22980000000001</v>
+        <v>289.84890000000001</v>
       </c>
       <c r="E47">
-        <v>4545</v>
+        <v>2330</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47">
-        <v>1.4104659494500001E-4</v>
+        <v>1.28102397751E-4</v>
       </c>
       <c r="H47">
-        <v>6.1461592412502E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>5.2483799696625998E-2</v>
+      </c>
+      <c r="I47">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>25025061101</v>
+        <v>25025981600</v>
       </c>
       <c r="C48">
-        <v>1778928.98</v>
+        <v>6512223.54</v>
       </c>
       <c r="D48">
-        <v>40.8386</v>
+        <v>149.5001</v>
       </c>
       <c r="E48">
-        <v>1783</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
-        <v>1.8051770433E-5</v>
+        <v>6.6147294622000003E-5</v>
       </c>
       <c r="H48">
-        <v>2.0834478607807998E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>6.8197165728883E-2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>25025091001</v>
+        <v>25025051101</v>
       </c>
       <c r="C49">
-        <v>12771750.15</v>
+        <v>12481789.43</v>
       </c>
       <c r="D49">
-        <v>293.19900000000001</v>
+        <v>286.54250000000002</v>
       </c>
       <c r="E49">
-        <v>1143</v>
+        <v>2904</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49">
-        <v>1.29569851602E-4</v>
+        <v>1.2678135422499999E-4</v>
       </c>
       <c r="H49">
-        <v>9.1888765470653E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>9.2788038109912999E-2</v>
+      </c>
+      <c r="I49">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>25025091500</v>
+        <v>25025051000</v>
       </c>
       <c r="C50">
-        <v>4350093.55</v>
+        <v>11241128.119999999</v>
       </c>
       <c r="D50">
-        <v>99.864400000000003</v>
+        <v>258.06079999999997</v>
       </c>
       <c r="E50">
-        <v>3963</v>
+        <v>1873</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1">
-        <v>4.4132606716000001E-5</v>
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>1.14176530423E-4</v>
       </c>
       <c r="H50">
-        <v>2.9805206466855999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>6.5259048967975006E-2</v>
+      </c>
+      <c r="I50">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>25025091200</v>
+        <v>25025981300</v>
       </c>
       <c r="C51">
-        <v>3483077.78</v>
+        <v>77303253.629999995</v>
       </c>
       <c r="D51">
-        <v>79.960499999999996</v>
+        <v>1774.6385</v>
       </c>
       <c r="E51">
-        <v>2253</v>
+        <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3.5339211436000003E-5</v>
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>7.8490658217299995E-4</v>
       </c>
       <c r="H51">
-        <v>2.8351216670298E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.18860215009710901</v>
+      </c>
+      <c r="I51">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="B52">
-        <v>25025091100</v>
+        <v>25025050101</v>
       </c>
       <c r="C52">
-        <v>4562470.46</v>
+        <v>3226514.74</v>
       </c>
       <c r="D52">
-        <v>104.73990000000001</v>
+        <v>74.070599999999999</v>
       </c>
       <c r="E52">
-        <v>2601</v>
+        <v>3687</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="1">
-        <v>4.6290207264000002E-5</v>
+        <v>3.2769063977999999E-5</v>
       </c>
       <c r="H52">
-        <v>2.8562803349407001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>4.2397305543756002E-2</v>
+      </c>
+      <c r="I52">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="B53">
-        <v>25025090901</v>
+        <v>25025050901</v>
       </c>
       <c r="C53">
-        <v>12625816.75</v>
+        <v>6618679.3499999996</v>
       </c>
       <c r="D53">
-        <v>289.84890000000001</v>
+        <v>151.94399999999999</v>
       </c>
       <c r="E53">
-        <v>2330</v>
+        <v>2950</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53">
-        <v>1.28102397751E-4</v>
+        <v>17</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6.7221395878000004E-5</v>
       </c>
       <c r="H53">
-        <v>5.2483799696625998E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>6.7752118964478997E-2</v>
+      </c>
+      <c r="I53">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B54">
-        <v>25025981600</v>
+        <v>25025981502</v>
       </c>
       <c r="C54">
-        <v>6512223.54</v>
+        <v>13774214.08</v>
       </c>
       <c r="D54">
-        <v>149.5001</v>
+        <v>316.2124</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="1">
-        <v>6.6147294622000003E-5</v>
+      <c r="G54">
+        <v>1.39928130624E-4</v>
       </c>
       <c r="H54">
-        <v>6.8197165728883E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>6.0570014362960001E-2</v>
+      </c>
+      <c r="I54">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="B55">
-        <v>25025051101</v>
+        <v>25025051200</v>
       </c>
       <c r="C55">
-        <v>12481789.43</v>
+        <v>4435460.51</v>
       </c>
       <c r="D55">
-        <v>286.54250000000002</v>
+        <v>101.8242</v>
       </c>
       <c r="E55">
-        <v>2904</v>
+        <v>1030</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
-      <c r="G55">
-        <v>1.2678135422499999E-4</v>
+      <c r="G55" s="1">
+        <v>4.5036285320000001E-5</v>
       </c>
       <c r="H55">
-        <v>9.2788038109912999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>6.9175513333528005E-2</v>
+      </c>
+      <c r="I55">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B56">
-        <v>25025051000</v>
+        <v>25025050700</v>
       </c>
       <c r="C56">
-        <v>11241128.119999999</v>
+        <v>2924637.13</v>
       </c>
       <c r="D56">
-        <v>258.06079999999997</v>
+        <v>67.1404</v>
       </c>
       <c r="E56">
-        <v>1873</v>
+        <v>3279</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
-      <c r="G56">
-        <v>1.14176530423E-4</v>
+      <c r="G56" s="1">
+        <v>2.9700554785E-5</v>
       </c>
       <c r="H56">
-        <v>6.5259048967975006E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>2.8426059240853001E-2</v>
+      </c>
+      <c r="I56">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B57">
-        <v>25025981300</v>
+        <v>25025050600</v>
       </c>
       <c r="C57">
-        <v>77303253.629999995</v>
+        <v>1821435.1</v>
       </c>
       <c r="D57">
-        <v>1774.6385</v>
+        <v>41.814399999999999</v>
       </c>
       <c r="E57">
-        <v>131</v>
+        <v>1540</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
-      <c r="G57">
-        <v>7.8490658217299995E-4</v>
+      <c r="G57" s="1">
+        <v>1.8496235478000001E-5</v>
       </c>
       <c r="H57">
-        <v>0.18860215009710901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>2.0259269448874E-2</v>
+      </c>
+      <c r="I57">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B58">
-        <v>25025050101</v>
+        <v>25025050500</v>
       </c>
       <c r="C58">
-        <v>3226514.74</v>
+        <v>1235330</v>
       </c>
       <c r="D58">
-        <v>74.070599999999999</v>
+        <v>28.359300000000001</v>
       </c>
       <c r="E58">
-        <v>3687</v>
+        <v>1147</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1">
-        <v>3.2769063977999999E-5</v>
+        <v>1.2544068365E-5</v>
       </c>
       <c r="H58">
-        <v>4.2397305543756002E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>1.4792936822467E-2</v>
+      </c>
+      <c r="I58">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="B59">
-        <v>25025050901</v>
+        <v>25025050400</v>
       </c>
       <c r="C59">
-        <v>6618679.3499999996</v>
+        <v>1420513.59</v>
       </c>
       <c r="D59">
-        <v>151.94399999999999</v>
+        <v>32.610500000000002</v>
       </c>
       <c r="E59">
-        <v>2950</v>
+        <v>1437</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="1">
-        <v>6.7221395878000004E-5</v>
+        <v>1.4424158097999999E-5</v>
       </c>
       <c r="H59">
-        <v>6.7752118964478997E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>1.8323943037466001E-2</v>
+      </c>
+      <c r="I59">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B60">
-        <v>25025981502</v>
+        <v>25025050300</v>
       </c>
       <c r="C60">
-        <v>13774214.08</v>
+        <v>3824484.97</v>
       </c>
       <c r="D60">
-        <v>316.2124</v>
+        <v>87.798100000000005</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1601</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
-      <c r="G60">
-        <v>1.39928130624E-4</v>
+      <c r="G60" s="1">
+        <v>3.8837022906000001E-5</v>
       </c>
       <c r="H60">
-        <v>6.0570014362960001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>6.8313565714418004E-2</v>
+      </c>
+      <c r="I60">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B61">
-        <v>25025051200</v>
+        <v>25025050200</v>
       </c>
       <c r="C61">
-        <v>4435460.51</v>
+        <v>2618361.16</v>
       </c>
       <c r="D61">
-        <v>101.8242</v>
+        <v>60.109299999999998</v>
       </c>
       <c r="E61">
-        <v>1030</v>
+        <v>3878</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="1">
-        <v>4.5036285320000001E-5</v>
+        <v>2.6591226517999999E-5</v>
       </c>
       <c r="H61">
-        <v>6.9175513333528005E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>3.1509607609092001E-2</v>
+      </c>
+      <c r="I61">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>25025050700</v>
+        <v>25025010404</v>
       </c>
       <c r="C62">
-        <v>2924637.13</v>
+        <v>1472713.92</v>
       </c>
       <c r="D62">
-        <v>67.1404</v>
+        <v>33.808900000000001</v>
       </c>
       <c r="E62">
-        <v>3279</v>
+        <v>1749</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G62" s="1">
-        <v>2.9700554785E-5</v>
+        <v>1.494808436E-5</v>
       </c>
       <c r="H62">
-        <v>2.8426059240853001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>1.7437192143295002E-2</v>
+      </c>
+      <c r="I62">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>25025050600</v>
+        <v>25025010204</v>
       </c>
       <c r="C63">
-        <v>1821435.1</v>
+        <v>2741497.18</v>
       </c>
       <c r="D63">
-        <v>41.814399999999999</v>
+        <v>62.936100000000003</v>
       </c>
       <c r="E63">
-        <v>1540</v>
+        <v>1039</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1">
-        <v>1.8496235478000001E-5</v>
+        <v>2.7828138435E-5</v>
       </c>
       <c r="H63">
-        <v>2.0259269448874E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>2.5103492344747999E-2</v>
+      </c>
+      <c r="I63">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>25025050500</v>
+        <v>25025010103</v>
       </c>
       <c r="C64">
-        <v>1235330</v>
+        <v>2938702.47</v>
       </c>
       <c r="D64">
-        <v>28.359300000000001</v>
+        <v>67.463300000000004</v>
       </c>
       <c r="E64">
-        <v>1147</v>
+        <v>1995</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G64" s="1">
-        <v>1.2544068365E-5</v>
+        <v>2.9831541091999998E-5</v>
       </c>
       <c r="H64">
-        <v>1.4792936822467E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>3.4155628312262001E-2</v>
+      </c>
+      <c r="I64">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>25025050400</v>
+        <v>25025000803</v>
       </c>
       <c r="C65">
-        <v>1420513.59</v>
+        <v>12465804.76</v>
       </c>
       <c r="D65">
-        <v>32.610500000000002</v>
+        <v>286.1755</v>
       </c>
       <c r="E65">
-        <v>1437</v>
+        <v>2649</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1.4424158097999999E-5</v>
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>1.2656281350399999E-4</v>
       </c>
       <c r="H65">
-        <v>1.8323943037466001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>8.2055459162949998E-2</v>
+      </c>
+      <c r="I65">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>25025050300</v>
+        <v>25025010408</v>
       </c>
       <c r="C66">
-        <v>3824484.97</v>
+        <v>466915.08</v>
       </c>
       <c r="D66">
-        <v>87.798100000000005</v>
+        <v>10.7189</v>
       </c>
       <c r="E66">
-        <v>1601</v>
+        <v>412</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G66" s="1">
-        <v>3.8837022906000001E-5</v>
+        <v>4.7392882119999997E-6</v>
       </c>
       <c r="H66">
-        <v>6.8313565714418004E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>8.8818774714170007E-3</v>
+      </c>
+      <c r="I66">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B67">
-        <v>25025050200</v>
+        <v>25025010203</v>
       </c>
       <c r="C67">
-        <v>2618361.16</v>
+        <v>3942467.47</v>
       </c>
       <c r="D67">
-        <v>60.109299999999998</v>
+        <v>90.506600000000006</v>
       </c>
       <c r="E67">
-        <v>3878</v>
+        <v>1964</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G67" s="1">
-        <v>2.6591226517999999E-5</v>
+        <v>4.0017886265000001E-5</v>
       </c>
       <c r="H67">
-        <v>3.1509607609092001E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>3.7534025691926001E-2</v>
+      </c>
+      <c r="I67">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>25025010404</v>
+        <v>25025980300</v>
       </c>
       <c r="C68">
-        <v>1472713.92</v>
+        <v>22640579.760000002</v>
       </c>
       <c r="D68">
-        <v>33.808900000000001</v>
+        <v>519.75620000000004</v>
       </c>
       <c r="E68">
-        <v>1749</v>
+        <v>191</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1.494808436E-5</v>
+        <v>13</v>
+      </c>
+      <c r="G68">
+        <v>2.2966186443099999E-4</v>
       </c>
       <c r="H68">
-        <v>1.7437192143295002E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>6.6547956564812993E-2</v>
+      </c>
+      <c r="I68">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>25025010204</v>
+        <v>25025120201</v>
       </c>
       <c r="C69">
-        <v>2741497.18</v>
+        <v>7743687.5300000003</v>
       </c>
       <c r="D69">
-        <v>62.936100000000003</v>
+        <v>177.7706</v>
       </c>
       <c r="E69">
-        <v>1039</v>
+        <v>1536</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G69" s="1">
-        <v>2.7828138435E-5</v>
+        <v>7.8553548042999998E-5</v>
       </c>
       <c r="H69">
-        <v>2.5103492344747999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>4.0206443173003002E-2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>25025010103</v>
+        <v>25025120104</v>
       </c>
       <c r="C70">
-        <v>2938702.47</v>
+        <v>3124502.39</v>
       </c>
       <c r="D70">
-        <v>67.463300000000004</v>
+        <v>71.728700000000003</v>
       </c>
       <c r="E70">
-        <v>1995</v>
+        <v>736</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G70" s="1">
-        <v>2.9831541091999998E-5</v>
+        <v>3.1695858963999999E-5</v>
       </c>
       <c r="H70">
-        <v>3.4155628312262001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>2.7106744802985999E-2</v>
+      </c>
+      <c r="I70">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B71">
-        <v>25025000803</v>
+        <v>25025120700</v>
       </c>
       <c r="C71">
-        <v>12465804.76</v>
+        <v>3201881.94</v>
       </c>
       <c r="D71">
-        <v>286.1755</v>
+        <v>73.505099999999999</v>
       </c>
       <c r="E71">
-        <v>2649</v>
+        <v>747</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71">
-        <v>1.2656281350399999E-4</v>
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3.2490222044999997E-5</v>
       </c>
       <c r="H71">
-        <v>8.2055459162949998E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>3.2861172391611002E-2</v>
+      </c>
+      <c r="I71">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B72">
-        <v>25025010408</v>
+        <v>25025120600</v>
       </c>
       <c r="C72">
-        <v>466915.08</v>
+        <v>2779177.05</v>
       </c>
       <c r="D72">
-        <v>10.7189</v>
+        <v>63.801099999999998</v>
       </c>
       <c r="E72">
-        <v>412</v>
+        <v>584</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G72" s="1">
-        <v>4.7392882119999997E-6</v>
+        <v>2.8198675639999999E-5</v>
       </c>
       <c r="H72">
-        <v>8.8818774714170007E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>2.1098512651235E-2</v>
+      </c>
+      <c r="I72">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="B73">
-        <v>25025010203</v>
+        <v>25025120500</v>
       </c>
       <c r="C73">
-        <v>3942467.47</v>
+        <v>2300163.94</v>
       </c>
       <c r="D73">
-        <v>90.506600000000006</v>
+        <v>52.804499999999997</v>
       </c>
       <c r="E73">
-        <v>1964</v>
+        <v>1567</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G73" s="1">
-        <v>4.0017886265000001E-5</v>
+        <v>2.3338986498E-5</v>
       </c>
       <c r="H73">
-        <v>3.7534025691926001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>2.5156714598360001E-2</v>
+      </c>
+      <c r="I73">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B74">
-        <v>25025980300</v>
+        <v>25025120400</v>
       </c>
       <c r="C74">
-        <v>22640579.760000002</v>
+        <v>10751638.6</v>
       </c>
       <c r="D74">
-        <v>519.75620000000004</v>
+        <v>246.8237</v>
       </c>
       <c r="E74">
-        <v>191</v>
+        <v>1407</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
       </c>
       <c r="G74">
-        <v>2.2966186443099999E-4</v>
+        <v>1.09081731048E-4</v>
       </c>
       <c r="H74">
-        <v>6.6547956564812993E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>5.7517340812419999E-2</v>
+      </c>
+      <c r="I74">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B75">
-        <v>25025120201</v>
+        <v>25025981800</v>
       </c>
       <c r="C75">
-        <v>7743687.5300000003</v>
+        <v>11806322.09</v>
       </c>
       <c r="D75">
-        <v>177.7706</v>
+        <v>271.03590000000003</v>
       </c>
       <c r="E75">
-        <v>1536</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="1">
-        <v>7.8553548042999998E-5</v>
+      <c r="G75">
+        <v>1.19809493048E-4</v>
       </c>
       <c r="H75">
-        <v>4.0206443173003002E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.127828891065495</v>
+      </c>
+      <c r="I75">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>25025120104</v>
+        <v>25025081200</v>
       </c>
       <c r="C76">
-        <v>3124502.39</v>
+        <v>3039251.67</v>
       </c>
       <c r="D76">
-        <v>71.728700000000003</v>
+        <v>69.771600000000007</v>
       </c>
       <c r="E76">
-        <v>736</v>
+        <v>2872</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="1">
-        <v>3.1695858963999999E-5</v>
+        <v>3.0840061638999998E-5</v>
       </c>
       <c r="H76">
-        <v>2.7106744802985999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>2.7054234030051E-2</v>
+      </c>
+      <c r="I76">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>25025120700</v>
+        <v>25025081100</v>
       </c>
       <c r="C77">
-        <v>3201881.94</v>
+        <v>5337204.78</v>
       </c>
       <c r="D77">
-        <v>73.505099999999999</v>
+        <v>122.5254</v>
       </c>
       <c r="E77">
-        <v>747</v>
+        <v>2138</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="1">
-        <v>3.2490222044999997E-5</v>
+        <v>5.4161296569000002E-5</v>
       </c>
       <c r="H77">
-        <v>3.2861172391611002E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>4.9836070002799999E-2</v>
+      </c>
+      <c r="I77">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B78">
-        <v>25025120600</v>
+        <v>25025120103</v>
       </c>
       <c r="C78">
-        <v>2779177.05</v>
+        <v>3802045.27</v>
       </c>
       <c r="D78">
-        <v>63.801099999999998</v>
+        <v>87.282899999999998</v>
       </c>
       <c r="E78">
-        <v>584</v>
+        <v>238</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="1">
-        <v>2.8198675639999999E-5</v>
+        <v>3.8572700315999997E-5</v>
       </c>
       <c r="H78">
-        <v>2.1098512651235E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>2.5426199544089999E-2</v>
+      </c>
+      <c r="I78">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B79">
-        <v>25025120500</v>
+        <v>25025120105</v>
       </c>
       <c r="C79">
-        <v>2300163.94</v>
+        <v>19809165.829999998</v>
       </c>
       <c r="D79">
-        <v>52.804499999999997</v>
+        <v>454.7559</v>
       </c>
       <c r="E79">
-        <v>1567</v>
+        <v>554</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="1">
-        <v>2.3338986498E-5</v>
+      <c r="G79">
+        <v>2.00961358407E-4</v>
       </c>
       <c r="H79">
-        <v>2.5156714598360001E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>7.9516202476855993E-2</v>
+      </c>
+      <c r="I79">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B80">
-        <v>25025120400</v>
+        <v>25025120301</v>
       </c>
       <c r="C80">
-        <v>10751638.6</v>
+        <v>7135172.5700000003</v>
       </c>
       <c r="D80">
-        <v>246.8237</v>
+        <v>163.80099999999999</v>
       </c>
       <c r="E80">
-        <v>1407</v>
+        <v>2887</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
-      <c r="G80">
-        <v>1.09081731048E-4</v>
+      <c r="G80" s="1">
+        <v>7.2389107097999998E-5</v>
       </c>
       <c r="H80">
-        <v>5.7517340812419999E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>4.0522683874539001E-2</v>
+      </c>
+      <c r="I80">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B81">
-        <v>25025981800</v>
+        <v>25025081400</v>
       </c>
       <c r="C81">
-        <v>11806322.09</v>
+        <v>6678367.0700000003</v>
       </c>
       <c r="D81">
-        <v>271.03590000000003</v>
+        <v>153.3142</v>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>2318</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
       </c>
-      <c r="G81">
-        <v>1.19809493048E-4</v>
+      <c r="G81" s="1">
+        <v>6.7770605432999995E-5</v>
       </c>
       <c r="H81">
-        <v>0.127828891065495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>4.8306124534056E-2</v>
+      </c>
+      <c r="I81">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="B82">
-        <v>25025081200</v>
+        <v>25025081300</v>
       </c>
       <c r="C82">
-        <v>3039251.67</v>
+        <v>6246271.6100000003</v>
       </c>
       <c r="D82">
-        <v>69.771600000000007</v>
+        <v>143.3947</v>
       </c>
       <c r="E82">
-        <v>2872</v>
+        <v>4461</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="1">
-        <v>3.0840061638999998E-5</v>
+        <v>6.3377461361999995E-5</v>
       </c>
       <c r="H82">
-        <v>2.7054234030051E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>4.2401854358574999E-2</v>
+      </c>
+      <c r="I82">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>25025081100</v>
+        <v>25025010405</v>
       </c>
       <c r="C83">
-        <v>5337204.78</v>
+        <v>3914567.54</v>
       </c>
       <c r="D83">
-        <v>122.5254</v>
+        <v>89.866100000000003</v>
       </c>
       <c r="E83">
-        <v>2138</v>
+        <v>1755</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G83" s="1">
-        <v>5.4161296569000002E-5</v>
+        <v>3.9731689710999999E-5</v>
       </c>
       <c r="H83">
-        <v>4.9836070002799999E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>4.6606703233607001E-2</v>
+      </c>
+      <c r="I83">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B84">
-        <v>25025120103</v>
+        <v>25025080900</v>
       </c>
       <c r="C84">
-        <v>3802045.27</v>
+        <v>2762558.85</v>
       </c>
       <c r="D84">
-        <v>87.282899999999998</v>
+        <v>63.419600000000003</v>
       </c>
       <c r="E84">
-        <v>238</v>
+        <v>1407</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G84" s="1">
-        <v>3.8572700315999997E-5</v>
+        <v>2.8035847304999998E-5</v>
       </c>
       <c r="H84">
-        <v>2.5426199544089999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>2.6789354834533E-2</v>
+      </c>
+      <c r="I84">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B85">
-        <v>25025120105</v>
+        <v>25025080801</v>
       </c>
       <c r="C85">
-        <v>19809165.829999998</v>
+        <v>3925348.89</v>
       </c>
       <c r="D85">
-        <v>454.7559</v>
+        <v>90.113600000000005</v>
       </c>
       <c r="E85">
-        <v>554</v>
+        <v>2627</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85">
-        <v>2.00961358407E-4</v>
+        <v>8</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3.9837851215000001E-5</v>
       </c>
       <c r="H85">
-        <v>7.9516202476855993E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>2.6755070179249E-2</v>
+      </c>
+      <c r="I85">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B86">
-        <v>25025120301</v>
+        <v>25025080601</v>
       </c>
       <c r="C86">
-        <v>7135172.5700000003</v>
+        <v>6029101.2000000002</v>
       </c>
       <c r="D86">
-        <v>163.80099999999999</v>
+        <v>138.4091</v>
       </c>
       <c r="E86">
-        <v>2887</v>
+        <v>2125</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G86" s="1">
-        <v>7.2389107097999998E-5</v>
+        <v>6.1187304792999998E-5</v>
       </c>
       <c r="H86">
-        <v>4.0522683874539001E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>5.6339788842176997E-2</v>
+      </c>
+      <c r="I86">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B87">
-        <v>25025081400</v>
+        <v>25025081001</v>
       </c>
       <c r="C87">
-        <v>6678367.0700000003</v>
+        <v>6011081.9900000002</v>
       </c>
       <c r="D87">
-        <v>153.3142</v>
+        <v>137.99549999999999</v>
       </c>
       <c r="E87">
-        <v>2318</v>
+        <v>2710</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G87" s="1">
-        <v>6.7770605432999995E-5</v>
+        <v>6.1005630604999997E-5</v>
       </c>
       <c r="H87">
-        <v>4.8306124534056E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>5.4715447356667002E-2</v>
+      </c>
+      <c r="I87">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="B88">
-        <v>25025081300</v>
+        <v>25025030400</v>
       </c>
       <c r="C88">
-        <v>6246271.6100000003</v>
+        <v>1169226.18</v>
       </c>
       <c r="D88">
-        <v>143.3947</v>
+        <v>26.841699999999999</v>
       </c>
       <c r="E88">
-        <v>4461</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G88" s="1">
-        <v>6.3377461361999995E-5</v>
+        <v>1.1871836159000001E-5</v>
       </c>
       <c r="H88">
-        <v>4.2401854358574999E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>1.9281417562374999E-2</v>
+      </c>
+      <c r="I88">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B89">
-        <v>25025070101</v>
+        <v>25025030300</v>
       </c>
       <c r="C89">
-        <v>10969123.93</v>
+        <v>7441425.2000000002</v>
       </c>
       <c r="D89">
-        <v>251.81639999999999</v>
+        <v>170.83160000000001</v>
       </c>
       <c r="E89">
-        <v>2378</v>
+        <v>884</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89">
-        <v>1.11355678282E-4</v>
+        <v>18</v>
+      </c>
+      <c r="G89" s="1">
+        <v>7.5552203107999994E-5</v>
       </c>
       <c r="H89">
-        <v>5.4916474155415999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>7.2261943205002996E-2</v>
+      </c>
+      <c r="I89">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B90">
-        <v>25025010300</v>
+        <v>25025030200</v>
       </c>
       <c r="C90">
-        <v>5480700.0599999996</v>
+        <v>718033.85</v>
       </c>
       <c r="D90">
-        <v>125.81959999999999</v>
+        <v>16.483799999999999</v>
       </c>
       <c r="E90">
-        <v>1480</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G90" s="1">
-        <v>5.5627061854999998E-5</v>
+        <v>7.2906260299999999E-6</v>
       </c>
       <c r="H90">
-        <v>4.1621184499999998E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>1.3622671680532999E-2</v>
+      </c>
+      <c r="I90">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B91">
-        <v>25025010405</v>
+        <v>25025030100</v>
       </c>
       <c r="C91">
-        <v>3914567.54</v>
+        <v>821725.44</v>
       </c>
       <c r="D91">
-        <v>89.866100000000003</v>
+        <v>18.8642</v>
       </c>
       <c r="E91">
-        <v>1755</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G91" s="1">
-        <v>3.9731689710999999E-5</v>
+        <v>8.3437843019999997E-6</v>
       </c>
       <c r="H91">
-        <v>4.6606703233607001E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>1.3062327230955E-2</v>
+      </c>
+      <c r="I91">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B92">
-        <v>25025080900</v>
+        <v>25025020303</v>
       </c>
       <c r="C92">
-        <v>2762558.85</v>
+        <v>4830892.13</v>
       </c>
       <c r="D92">
-        <v>63.419600000000003</v>
+        <v>110.902</v>
       </c>
       <c r="E92">
-        <v>1407</v>
+        <v>1353</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G92" s="1">
-        <v>2.8035847304999998E-5</v>
+        <v>4.9051747513000001E-5</v>
       </c>
       <c r="H92">
-        <v>2.6789354834533E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>4.7793230190801998E-2</v>
+      </c>
+      <c r="I92">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B93">
-        <v>25025080801</v>
+        <v>25025030500</v>
       </c>
       <c r="C93">
-        <v>3925348.89</v>
+        <v>2052881.84</v>
       </c>
       <c r="D93">
-        <v>90.113600000000005</v>
+        <v>47.127699999999997</v>
       </c>
       <c r="E93">
-        <v>2627</v>
+        <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G93" s="1">
-        <v>3.9837851215000001E-5</v>
+        <v>2.0844907115E-5</v>
       </c>
       <c r="H93">
-        <v>2.6755070179249E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>4.5188475680265003E-2</v>
+      </c>
+      <c r="I93">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B94">
-        <v>25025080601</v>
+        <v>25025110607</v>
       </c>
       <c r="C94">
-        <v>6029101.2000000002</v>
+        <v>12606722.98</v>
       </c>
       <c r="D94">
-        <v>138.4091</v>
+        <v>289.41050000000001</v>
       </c>
       <c r="E94">
-        <v>2125</v>
+        <v>992</v>
       </c>
       <c r="F94" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="1">
-        <v>6.1187304792999998E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G94">
+        <v>1.2785550365499999E-4</v>
       </c>
       <c r="H94">
-        <v>5.6339788842176997E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>6.7185524049743997E-2</v>
+      </c>
+      <c r="I94">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>25025081001</v>
+        <v>25025140400</v>
       </c>
       <c r="C95">
-        <v>6011081.9900000002</v>
+        <v>20351684.25</v>
       </c>
       <c r="D95">
-        <v>137.99549999999999</v>
+        <v>467.21039999999999</v>
       </c>
       <c r="E95">
-        <v>2710</v>
+        <v>6984</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="1">
-        <v>6.1005630604999997E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G95">
+        <v>2.0633637401500001E-4</v>
       </c>
       <c r="H95">
-        <v>5.4715447356667002E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>8.8299857686182995E-2</v>
+      </c>
+      <c r="I95">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B96">
-        <v>25025030400</v>
+        <v>25025130300</v>
       </c>
       <c r="C96">
-        <v>1169226.18</v>
+        <v>15522347.970000001</v>
       </c>
       <c r="D96">
-        <v>26.841699999999999</v>
+        <v>356.34410000000003</v>
       </c>
       <c r="E96">
-        <v>198</v>
+        <v>742</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1.1871836159000001E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>1.5739802712000001E-4</v>
       </c>
       <c r="H96">
-        <v>1.9281417562374999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>5.7901839904091E-2</v>
+      </c>
+      <c r="I96">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B97">
-        <v>25025030300</v>
+        <v>25025130200</v>
       </c>
       <c r="C97">
-        <v>7441425.2000000002</v>
+        <v>14558816.720000001</v>
       </c>
       <c r="D97">
-        <v>170.83160000000001</v>
+        <v>334.2244</v>
       </c>
       <c r="E97">
-        <v>884</v>
+        <v>593</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="1">
-        <v>7.5552203107999994E-5</v>
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>1.4764662907899999E-4</v>
       </c>
       <c r="H97">
-        <v>7.2261943205002996E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>5.9031824936016997E-2</v>
+      </c>
+      <c r="I97">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B98">
-        <v>25025030200</v>
+        <v>25025110601</v>
       </c>
       <c r="C98">
-        <v>718033.85</v>
+        <v>15228405.800000001</v>
       </c>
       <c r="D98">
-        <v>16.483799999999999</v>
+        <v>349.59609999999998</v>
       </c>
       <c r="E98">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="1">
-        <v>7.2906260299999999E-6</v>
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <v>1.5445801169500001E-4</v>
       </c>
       <c r="H98">
-        <v>1.3622671680532999E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>5.5378128655056001E-2</v>
+      </c>
+      <c r="I98">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B99">
-        <v>25025030100</v>
+        <v>25025110502</v>
       </c>
       <c r="C99">
-        <v>821725.44</v>
+        <v>7365204.5499999998</v>
       </c>
       <c r="D99">
-        <v>18.8642</v>
+        <v>169.08179999999999</v>
       </c>
       <c r="E99">
-        <v>136</v>
+        <v>1736</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G99" s="1">
-        <v>8.3437843019999997E-6</v>
+        <v>7.4688261958999998E-5</v>
       </c>
       <c r="H99">
-        <v>1.3062327230955E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>4.0239564940954001E-2</v>
+      </c>
+      <c r="I99">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B100">
-        <v>25025020303</v>
+        <v>25025110501</v>
       </c>
       <c r="C100">
-        <v>4830892.13</v>
+        <v>6972865.5099999998</v>
       </c>
       <c r="D100">
-        <v>110.902</v>
+        <v>160.07499999999999</v>
       </c>
       <c r="E100">
-        <v>1353</v>
+        <v>954</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G100" s="1">
-        <v>4.9051747513000001E-5</v>
+        <v>7.0708835395000004E-5</v>
       </c>
       <c r="H100">
-        <v>4.7793230190801998E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>3.6727275736666003E-2</v>
+      </c>
+      <c r="I100">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="B101">
-        <v>25025030500</v>
+        <v>25025110401</v>
       </c>
       <c r="C101">
-        <v>2052881.84</v>
+        <v>5623201.0800000001</v>
       </c>
       <c r="D101">
-        <v>47.127699999999997</v>
+        <v>129.0909</v>
       </c>
       <c r="E101">
-        <v>244</v>
+        <v>2449</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G101" s="1">
-        <v>2.0844907115E-5</v>
+        <v>5.7026266243999997E-5</v>
       </c>
       <c r="H101">
-        <v>4.5188475680265003E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>3.198731846511E-2</v>
+      </c>
+      <c r="I101">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B102">
-        <v>25025110607</v>
+        <v>25025101001</v>
       </c>
       <c r="C102">
-        <v>12606722.98</v>
+        <v>14014997.85</v>
       </c>
       <c r="D102">
-        <v>289.41050000000001</v>
+        <v>321.74009999999998</v>
       </c>
       <c r="E102">
-        <v>992</v>
+        <v>5347</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
       <c r="G102">
-        <v>1.2785550365499999E-4</v>
+        <v>1.4209792379899999E-4</v>
       </c>
       <c r="H102">
-        <v>6.7185524049743997E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>6.2095682851433E-2</v>
+      </c>
+      <c r="I102">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B103">
-        <v>25025140400</v>
+        <v>25025110103</v>
       </c>
       <c r="C103">
-        <v>20351684.25</v>
+        <v>10064472.960000001</v>
       </c>
       <c r="D103">
-        <v>467.21039999999999</v>
+        <v>231.04849999999999</v>
       </c>
       <c r="E103">
-        <v>6984</v>
+        <v>3322</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
       </c>
       <c r="G103">
-        <v>2.0633637401500001E-4</v>
+        <v>1.0208181286E-4</v>
       </c>
       <c r="H103">
-        <v>8.8299857686182995E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>7.7397611672780003E-2</v>
+      </c>
+      <c r="I103">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B104">
-        <v>25025130300</v>
+        <v>25025110301</v>
       </c>
       <c r="C104">
-        <v>15522347.970000001</v>
+        <v>8803506.2200000007</v>
       </c>
       <c r="D104">
-        <v>356.34410000000003</v>
+        <v>202.10069999999999</v>
       </c>
       <c r="E104">
-        <v>742</v>
+        <v>1450</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
       </c>
-      <c r="G104">
-        <v>1.5739802712000001E-4</v>
+      <c r="G104" s="1">
+        <v>8.9279034710999995E-5</v>
       </c>
       <c r="H104">
-        <v>5.7901839904091E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>4.6575556362345998E-2</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B105">
-        <v>25025130200</v>
+        <v>25025140106</v>
       </c>
       <c r="C105">
-        <v>14558816.720000001</v>
+        <v>3045619.77</v>
       </c>
       <c r="D105">
-        <v>334.2244</v>
+        <v>69.9178</v>
       </c>
       <c r="E105">
-        <v>593</v>
+        <v>1623</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
       </c>
-      <c r="G105">
-        <v>1.4764662907899999E-4</v>
+      <c r="G105" s="1">
+        <v>3.0880863891999998E-5</v>
       </c>
       <c r="H105">
-        <v>5.9031824936016997E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>2.4782408086591001E-2</v>
+      </c>
+      <c r="I105">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B106">
-        <v>25025110601</v>
+        <v>25025981100</v>
       </c>
       <c r="C106">
-        <v>15228405.800000001</v>
+        <v>29412396.210000001</v>
       </c>
       <c r="D106">
-        <v>349.59609999999998</v>
+        <v>675.21569999999997</v>
       </c>
       <c r="E106">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106">
-        <v>1.5445801169500001E-4</v>
+        <v>2.98285355886E-4</v>
       </c>
       <c r="H106">
-        <v>5.5378128655056001E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>9.7497377541589006E-2</v>
+      </c>
+      <c r="I106">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B107">
-        <v>25025110502</v>
+        <v>25025140105</v>
       </c>
       <c r="C107">
-        <v>7365204.5499999998</v>
+        <v>10880533</v>
       </c>
       <c r="D107">
-        <v>169.08179999999999</v>
+        <v>249.78270000000001</v>
       </c>
       <c r="E107">
-        <v>1736</v>
+        <v>2370</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="1">
-        <v>7.4688261958999998E-5</v>
+      <c r="G107">
+        <v>1.10310453892E-4</v>
       </c>
       <c r="H107">
-        <v>4.0239564940954001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>4.4894380069708001E-2</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B108">
-        <v>25025110501</v>
+        <v>25025980700</v>
       </c>
       <c r="C108">
-        <v>6972865.5099999998</v>
+        <v>31654255.199999999</v>
       </c>
       <c r="D108">
-        <v>160.07499999999999</v>
+        <v>726.68169999999998</v>
       </c>
       <c r="E108">
-        <v>954</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="1">
-        <v>7.0708835395000004E-5</v>
+      <c r="G108">
+        <v>3.2090119000500002E-4</v>
       </c>
       <c r="H108">
-        <v>3.6727275736666003E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>0.12742194659787301</v>
+      </c>
+      <c r="I108">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="B109">
-        <v>25025110401</v>
+        <v>25025110403</v>
       </c>
       <c r="C109">
-        <v>5623201.0800000001</v>
+        <v>10231036.380000001</v>
       </c>
       <c r="D109">
-        <v>129.0909</v>
+        <v>234.8723</v>
       </c>
       <c r="E109">
-        <v>2449</v>
+        <v>2161</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="1">
-        <v>5.7026266243999997E-5</v>
+      <c r="G109">
+        <v>1.03741685971E-4</v>
       </c>
       <c r="H109">
-        <v>3.198731846511E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>4.6189716768582002E-2</v>
+      </c>
+      <c r="I109">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="B110">
-        <v>25025101001</v>
+        <v>25025110201</v>
       </c>
       <c r="C110">
-        <v>14014997.85</v>
+        <v>3747839.93</v>
       </c>
       <c r="D110">
-        <v>321.74009999999998</v>
+        <v>86.038600000000002</v>
       </c>
       <c r="E110">
-        <v>5347</v>
+        <v>1640</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
       </c>
-      <c r="G110">
-        <v>1.4209792379899999E-4</v>
+      <c r="G110" s="1">
+        <v>3.8004250533999997E-5</v>
       </c>
       <c r="H110">
-        <v>6.2095682851433E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>3.1912951894166E-2</v>
+      </c>
+      <c r="I110">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="B111">
-        <v>25025110103</v>
+        <v>25025981000</v>
       </c>
       <c r="C111">
-        <v>10064472.960000001</v>
+        <v>12173242.68</v>
       </c>
       <c r="D111">
-        <v>231.04849999999999</v>
+        <v>279.45920000000001</v>
       </c>
       <c r="E111">
-        <v>3322</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
       </c>
       <c r="G111">
-        <v>1.0208181286E-4</v>
+        <v>1.23475574126E-4</v>
       </c>
       <c r="H111">
-        <v>7.7397611672780003E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>6.2788021506509001E-2</v>
+      </c>
+      <c r="I111">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B112">
-        <v>25025110301</v>
+        <v>25025080500</v>
       </c>
       <c r="C112">
-        <v>8803506.2200000007</v>
+        <v>2643088.91</v>
       </c>
       <c r="D112">
-        <v>202.10069999999999</v>
+        <v>60.677</v>
       </c>
       <c r="E112">
-        <v>1450</v>
+        <v>2863</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G112" s="1">
-        <v>8.9279034710999995E-5</v>
+        <v>2.6824799688999999E-5</v>
       </c>
       <c r="H112">
-        <v>4.6575556362345998E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>2.6295858218231001E-2</v>
+      </c>
+      <c r="I112">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B113">
-        <v>25025140106</v>
+        <v>25025080401</v>
       </c>
       <c r="C113">
-        <v>3045619.77</v>
+        <v>4740788.83</v>
       </c>
       <c r="D113">
-        <v>69.9178</v>
+        <v>108.8335</v>
       </c>
       <c r="E113">
-        <v>1623</v>
+        <v>2510</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G113" s="1">
-        <v>3.0880863891999998E-5</v>
+        <v>4.8111747532999999E-5</v>
       </c>
       <c r="H113">
-        <v>2.4782408086591001E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>4.1414669785968999E-2</v>
+      </c>
+      <c r="I113">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B114">
-        <v>25025981100</v>
+        <v>25025080300</v>
       </c>
       <c r="C114">
-        <v>29412396.210000001</v>
+        <v>2893472.78</v>
       </c>
       <c r="D114">
-        <v>675.21569999999997</v>
+        <v>66.424999999999997</v>
       </c>
       <c r="E114">
-        <v>334</v>
+        <v>1686</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114">
-        <v>2.98285355886E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2.9362186891000002E-5</v>
       </c>
       <c r="H114">
-        <v>9.7497377541589006E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>2.7321904653979E-2</v>
+      </c>
+      <c r="I114">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B115">
-        <v>25025140105</v>
+        <v>25025071101</v>
       </c>
       <c r="C115">
-        <v>10880533</v>
+        <v>3904559.5</v>
       </c>
       <c r="D115">
-        <v>249.78270000000001</v>
+        <v>89.636399999999995</v>
       </c>
       <c r="E115">
-        <v>2370</v>
+        <v>1916</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115">
-        <v>1.10310453892E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3.9627672983000001E-5</v>
       </c>
       <c r="H115">
-        <v>4.4894380069708001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>2.9742203946819E-2</v>
+      </c>
+      <c r="I115">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B116">
-        <v>25025980700</v>
+        <v>25025070900</v>
       </c>
       <c r="C116">
-        <v>31654255.199999999</v>
+        <v>1802491.05</v>
       </c>
       <c r="D116">
-        <v>726.68169999999998</v>
+        <v>41.3795</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>1847</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116">
-        <v>3.2090119000500002E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.8294325920000001E-5</v>
       </c>
       <c r="H116">
-        <v>0.12742194659787301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>1.8656731310761999E-2</v>
+      </c>
+      <c r="I116">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B117">
-        <v>25025110403</v>
+        <v>25025100100</v>
       </c>
       <c r="C117">
-        <v>10231036.380000001</v>
+        <v>11170897.960000001</v>
       </c>
       <c r="D117">
-        <v>234.8723</v>
+        <v>256.44850000000002</v>
       </c>
       <c r="E117">
-        <v>2161</v>
+        <v>5453</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G117">
-        <v>1.03741685971E-4</v>
+        <v>1.13293447185E-4</v>
       </c>
       <c r="H117">
-        <v>4.6189716768582002E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>4.7456001029089E-2</v>
+      </c>
+      <c r="I117">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B118">
-        <v>25025110201</v>
+        <v>25025092400</v>
       </c>
       <c r="C118">
-        <v>3747839.93</v>
+        <v>6393422.5300000003</v>
       </c>
       <c r="D118">
-        <v>86.038600000000002</v>
+        <v>146.77279999999999</v>
       </c>
       <c r="E118">
-        <v>1640</v>
+        <v>5221</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G118" s="1">
-        <v>3.8004250533999997E-5</v>
+        <v>6.4846991276E-5</v>
       </c>
       <c r="H118">
-        <v>3.1912951894166E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>4.2662873929049001E-2</v>
+      </c>
+      <c r="I118">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="B119">
-        <v>25025981000</v>
+        <v>25025070800</v>
       </c>
       <c r="C119">
-        <v>12173242.68</v>
+        <v>2092259.14</v>
       </c>
       <c r="D119">
-        <v>279.45920000000001</v>
+        <v>48.031700000000001</v>
       </c>
       <c r="E119">
+        <v>1399</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2.1236218395999999E-5</v>
+      </c>
+      <c r="H119">
+        <v>1.9891600471923999E-2</v>
+      </c>
+      <c r="I119">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>139</v>
+      </c>
+      <c r="B120">
+        <v>25025091400</v>
+      </c>
+      <c r="C120">
+        <v>3498284.33</v>
+      </c>
+      <c r="D120">
+        <v>80.309600000000003</v>
+      </c>
+      <c r="E120">
+        <v>2545</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="1">
+        <v>3.5492911276999998E-5</v>
+      </c>
+      <c r="H120">
+        <v>2.6526792932319E-2</v>
+      </c>
+      <c r="I120">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>140</v>
+      </c>
+      <c r="B121">
+        <v>25025091300</v>
+      </c>
+      <c r="C121">
+        <v>2825980.81</v>
+      </c>
+      <c r="D121">
+        <v>64.875600000000006</v>
+      </c>
+      <c r="E121">
+        <v>2334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2.8673931511E-5</v>
+      </c>
+      <c r="H121">
+        <v>2.6920985662905E-2</v>
+      </c>
+      <c r="I121">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>143</v>
+      </c>
+      <c r="B122">
+        <v>25025090700</v>
+      </c>
+      <c r="C122">
+        <v>11544136.43</v>
+      </c>
+      <c r="D122">
+        <v>265.01690000000002</v>
+      </c>
+      <c r="E122">
+        <v>1678</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122">
+        <v>1.1714071914E-4</v>
+      </c>
+      <c r="H122">
+        <v>4.4662408570019997E-2</v>
+      </c>
+      <c r="I122">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>144</v>
+      </c>
+      <c r="B123">
+        <v>25025090600</v>
+      </c>
+      <c r="C123">
+        <v>3246866.13</v>
+      </c>
+      <c r="D123">
+        <v>74.537800000000004</v>
+      </c>
+      <c r="E123">
+        <v>2255</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3.2946021850999999E-5</v>
+      </c>
+      <c r="H123">
+        <v>2.9311390381211E-2</v>
+      </c>
+      <c r="I123">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>145</v>
+      </c>
+      <c r="B124">
+        <v>25025090400</v>
+      </c>
+      <c r="C124">
+        <v>4575787.71</v>
+      </c>
+      <c r="D124">
+        <v>105.04559999999999</v>
+      </c>
+      <c r="E124">
+        <v>3570</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="1">
+        <v>4.6426423392E-5</v>
+      </c>
+      <c r="H124">
+        <v>3.2228125670903003E-2</v>
+      </c>
+      <c r="I124">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>146</v>
+      </c>
+      <c r="B125">
+        <v>25025090300</v>
+      </c>
+      <c r="C125">
+        <v>4094225.77</v>
+      </c>
+      <c r="D125">
+        <v>93.990499999999997</v>
+      </c>
+      <c r="E125">
+        <v>3132</v>
+      </c>
+      <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="1">
+        <v>4.1536425753999998E-5</v>
+      </c>
+      <c r="H125">
+        <v>2.9747067376904999E-2</v>
+      </c>
+      <c r="I125">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>147</v>
+      </c>
+      <c r="B126">
+        <v>25025090200</v>
+      </c>
+      <c r="C126">
+        <v>2945580.09</v>
+      </c>
+      <c r="D126">
+        <v>67.621200000000002</v>
+      </c>
+      <c r="E126">
+        <v>2193</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2.9881491086000001E-5</v>
+      </c>
+      <c r="H126">
+        <v>2.5438437464499E-2</v>
+      </c>
+      <c r="I126">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>148</v>
+      </c>
+      <c r="B127">
+        <v>25025080100</v>
+      </c>
+      <c r="C127">
+        <v>11047170.59</v>
+      </c>
+      <c r="D127">
+        <v>253.60810000000001</v>
+      </c>
+      <c r="E127">
+        <v>2834</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127">
+        <v>1.1210703586E-4</v>
+      </c>
+      <c r="H127">
+        <v>5.9038917511483997E-2</v>
+      </c>
+      <c r="I127">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>162</v>
+      </c>
+      <c r="B128">
+        <v>25025090100</v>
+      </c>
+      <c r="C128">
+        <v>4811070.9800000004</v>
+      </c>
+      <c r="D128">
+        <v>110.447</v>
+      </c>
+      <c r="E128">
+        <v>4485</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="1">
+        <v>4.8802381290999999E-5</v>
+      </c>
+      <c r="H128">
+        <v>3.1604262365736997E-2</v>
+      </c>
+      <c r="I128">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>163</v>
+      </c>
+      <c r="B129">
+        <v>25025082100</v>
+      </c>
+      <c r="C129">
+        <v>3988567.24</v>
+      </c>
+      <c r="D129">
+        <v>91.564899999999994</v>
+      </c>
+      <c r="E129">
+        <v>4963</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="1">
+        <v>4.0463556584000001E-5</v>
+      </c>
+      <c r="H129">
+        <v>2.7439615194947999E-2</v>
+      </c>
+      <c r="I129">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>164</v>
+      </c>
+      <c r="B130">
+        <v>25025082000</v>
+      </c>
+      <c r="C130">
+        <v>4220856.09</v>
+      </c>
+      <c r="D130">
+        <v>96.897499999999994</v>
+      </c>
+      <c r="E130">
+        <v>2763</v>
+      </c>
+      <c r="F130" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4.2822969960999999E-5</v>
+      </c>
+      <c r="H130">
+        <v>2.735077360763E-2</v>
+      </c>
+      <c r="I130">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>175</v>
+      </c>
+      <c r="B131">
+        <v>25025081900</v>
+      </c>
+      <c r="C131">
+        <v>4664571.96</v>
+      </c>
+      <c r="D131">
+        <v>107.0838</v>
+      </c>
+      <c r="E131">
+        <v>3047</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4.7325989967000003E-5</v>
+      </c>
+      <c r="H131">
+        <v>3.7267564169793002E-2</v>
+      </c>
+      <c r="I131">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>176</v>
+      </c>
+      <c r="B132">
+        <v>25025081800</v>
+      </c>
+      <c r="C132">
+        <v>4024571.84</v>
+      </c>
+      <c r="D132">
+        <v>92.391499999999994</v>
+      </c>
+      <c r="E132">
+        <v>2820</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4.0835739277E-5</v>
+      </c>
+      <c r="H132">
+        <v>3.0773745300002001E-2</v>
+      </c>
+      <c r="I132">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>177</v>
+      </c>
+      <c r="B133">
+        <v>25025081700</v>
+      </c>
+      <c r="C133">
+        <v>6819156.25</v>
+      </c>
+      <c r="D133">
+        <v>156.5463</v>
+      </c>
+      <c r="E133">
+        <v>3746</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" s="1">
+        <v>6.9193844378000001E-5</v>
+      </c>
+      <c r="H133">
+        <v>3.6230014765374997E-2</v>
+      </c>
+      <c r="I133">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>178</v>
+      </c>
+      <c r="B134">
+        <v>25025081500</v>
+      </c>
+      <c r="C134">
+        <v>3619583.13</v>
+      </c>
+      <c r="D134">
+        <v>83.094200000000001</v>
+      </c>
+      <c r="E134">
+        <v>1957</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="1">
+        <v>3.6726705604E-5</v>
+      </c>
+      <c r="H134">
+        <v>3.7180224019013997E-2</v>
+      </c>
+      <c r="I134">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>123</v>
+      </c>
+      <c r="B135">
+        <v>25025061000</v>
+      </c>
+      <c r="C135">
+        <v>1862434.17</v>
+      </c>
+      <c r="D135">
+        <v>42.755600000000001</v>
+      </c>
+      <c r="E135">
+        <v>1814</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1.8900711740000001E-5</v>
+      </c>
+      <c r="H135">
+        <v>1.8864067579945999E-2</v>
+      </c>
+      <c r="I135">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>124</v>
+      </c>
+      <c r="B136">
+        <v>25025060800</v>
+      </c>
+      <c r="C136">
+        <v>3672689.59</v>
+      </c>
+      <c r="D136">
+        <v>84.313400000000001</v>
+      </c>
+      <c r="E136">
+        <v>387</v>
+      </c>
+      <c r="F136" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="1">
+        <v>3.7274082965999999E-5</v>
+      </c>
+      <c r="H136">
+        <v>3.0296446484030001E-2</v>
+      </c>
+      <c r="I136">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>125</v>
+      </c>
+      <c r="B137">
+        <v>25025060700</v>
+      </c>
+      <c r="C137">
+        <v>1380119.54</v>
+      </c>
+      <c r="D137">
+        <v>31.683199999999999</v>
+      </c>
+      <c r="E137">
+        <v>1539</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1.4007501132E-5</v>
+      </c>
+      <c r="H137">
+        <v>1.5586835240993E-2</v>
+      </c>
+      <c r="I137">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>25025060301</v>
+      </c>
+      <c r="C138">
+        <v>2933185.1</v>
+      </c>
+      <c r="D138">
+        <v>67.336699999999993</v>
+      </c>
+      <c r="E138">
+        <v>107</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2.9767949666000001E-5</v>
+      </c>
+      <c r="H138">
+        <v>2.8776031108454E-2</v>
+      </c>
+      <c r="I138">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>152</v>
+      </c>
+      <c r="B139">
+        <v>25025060101</v>
+      </c>
+      <c r="C139">
+        <v>3181825.6</v>
+      </c>
+      <c r="D139">
+        <v>73.044700000000006</v>
+      </c>
+      <c r="E139">
+        <v>101</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="1">
+        <v>3.2291990485000001E-5</v>
+      </c>
+      <c r="H139">
+        <v>2.5715036243789E-2</v>
+      </c>
+      <c r="I139">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>155</v>
+      </c>
+      <c r="B140">
+        <v>25025060400</v>
+      </c>
+      <c r="C140">
+        <v>4297519.18</v>
+      </c>
+      <c r="D140">
+        <v>98.657499999999999</v>
+      </c>
+      <c r="E140">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4.3613426660999998E-5</v>
+      </c>
+      <c r="H140">
+        <v>3.1031270395122001E-2</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>156</v>
+      </c>
+      <c r="B141">
+        <v>25025060200</v>
+      </c>
+      <c r="C141">
+        <v>1833887.31</v>
+      </c>
+      <c r="D141">
+        <v>42.100299999999997</v>
+      </c>
+      <c r="E141">
+        <v>32</v>
+      </c>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1.8611273799000001E-5</v>
+      </c>
+      <c r="H141">
+        <v>2.3831268027914999E-2</v>
+      </c>
+      <c r="I141">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>92</v>
+      </c>
+      <c r="B142">
+        <v>25025060501</v>
+      </c>
+      <c r="C142">
+        <v>4431658.04</v>
+      </c>
+      <c r="D142">
+        <v>101.73690000000001</v>
+      </c>
+      <c r="E142">
+        <v>228</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="1">
+        <v>4.4977917158999999E-5</v>
+      </c>
+      <c r="H142">
+        <v>4.0815973343211E-2</v>
+      </c>
+      <c r="I142">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>95</v>
+      </c>
+      <c r="B143">
+        <v>25025981202</v>
+      </c>
+      <c r="C143">
+        <v>17165825.449999999</v>
+      </c>
+      <c r="D143">
+        <v>394.07310000000001</v>
+      </c>
+      <c r="E143">
+        <v>52</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143">
+        <v>1.74234567974E-4</v>
+      </c>
+      <c r="H143">
+        <v>0.17719313141471901</v>
+      </c>
+      <c r="I143">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>154</v>
+      </c>
+      <c r="B144">
+        <v>25025060600</v>
+      </c>
+      <c r="C144">
+        <v>13571977.550000001</v>
+      </c>
+      <c r="D144">
+        <v>311.56970000000001</v>
+      </c>
+      <c r="E144">
+        <v>318</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144">
+        <v>1.3776707448200001E-4</v>
+      </c>
+      <c r="H144">
+        <v>0.102629393971979</v>
+      </c>
+      <c r="I144">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>109</v>
+      </c>
+      <c r="B145">
+        <v>25025070700</v>
+      </c>
+      <c r="C145">
+        <v>1766562.81</v>
+      </c>
+      <c r="D145">
+        <v>40.554699999999997</v>
+      </c>
+      <c r="E145">
+        <v>1074</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1.7931746006000001E-5</v>
+      </c>
+      <c r="H145">
+        <v>2.3717543729934999E-2</v>
+      </c>
+      <c r="I145">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>110</v>
+      </c>
+      <c r="B146">
+        <v>25025070600</v>
+      </c>
+      <c r="C146">
+        <v>1426485.77</v>
+      </c>
+      <c r="D146">
+        <v>32.747599999999998</v>
+      </c>
+      <c r="E146">
+        <v>402</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1.447915581E-5</v>
+      </c>
+      <c r="H146">
+        <v>1.8925617570222E-2</v>
+      </c>
+      <c r="I146">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>111</v>
+      </c>
+      <c r="B147">
+        <v>25025070500</v>
+      </c>
+      <c r="C147">
+        <v>3199661.22</v>
+      </c>
+      <c r="D147">
+        <v>73.454099999999997</v>
+      </c>
+      <c r="E147">
+        <v>2498</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="1">
+        <v>3.2476640696000003E-5</v>
+      </c>
+      <c r="H147">
+        <v>3.1037770260738999E-2</v>
+      </c>
+      <c r="I147">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>122</v>
+      </c>
+      <c r="B148">
+        <v>25025061200</v>
+      </c>
+      <c r="C148">
+        <v>19820250.559999999</v>
+      </c>
+      <c r="D148">
+        <v>455.01029999999997</v>
+      </c>
+      <c r="E148">
+        <v>497</v>
+      </c>
+      <c r="F148" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148">
+        <v>2.0116772749700001E-4</v>
+      </c>
+      <c r="H148">
+        <v>7.9030818552841997E-2</v>
+      </c>
+      <c r="I148">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>136</v>
+      </c>
+      <c r="B149">
+        <v>25025071201</v>
+      </c>
+      <c r="C149">
+        <v>4329260.4800000004</v>
+      </c>
+      <c r="D149">
+        <v>99.386099999999999</v>
+      </c>
+      <c r="E149">
+        <v>1913</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="1">
+        <v>4.3940642752000003E-5</v>
+      </c>
+      <c r="H149">
+        <v>3.5872354923818003E-2</v>
+      </c>
+      <c r="I149">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>60</v>
+      </c>
+      <c r="B150">
+        <v>25025020200</v>
+      </c>
+      <c r="C150">
+        <v>1258118.25</v>
+      </c>
+      <c r="D150">
+        <v>28.882400000000001</v>
+      </c>
+      <c r="E150">
+        <v>610</v>
+      </c>
+      <c r="F150" t="s">
         <v>19</v>
       </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119">
-        <v>1.23475574126E-4</v>
-      </c>
-      <c r="H119">
-        <v>6.2788021506509001E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120">
-        <v>76</v>
-      </c>
-      <c r="B120">
-        <v>25025080500</v>
-      </c>
-      <c r="C120">
-        <v>2643088.91</v>
-      </c>
-      <c r="D120">
-        <v>60.677</v>
-      </c>
-      <c r="E120">
-        <v>2863</v>
-      </c>
-      <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="1">
-        <v>2.6824799688999999E-5</v>
-      </c>
-      <c r="H120">
-        <v>2.6295858218231001E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121">
-        <v>77</v>
-      </c>
-      <c r="B121">
-        <v>25025080401</v>
-      </c>
-      <c r="C121">
-        <v>4740788.83</v>
-      </c>
-      <c r="D121">
-        <v>108.8335</v>
-      </c>
-      <c r="E121">
-        <v>2510</v>
-      </c>
-      <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" s="1">
-        <v>4.8111747532999999E-5</v>
-      </c>
-      <c r="H121">
-        <v>4.1414669785968999E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122">
-        <v>78</v>
-      </c>
-      <c r="B122">
-        <v>25025080300</v>
-      </c>
-      <c r="C122">
-        <v>2893472.78</v>
-      </c>
-      <c r="D122">
-        <v>66.424999999999997</v>
-      </c>
-      <c r="E122">
-        <v>1686</v>
-      </c>
-      <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" s="1">
-        <v>2.9362186891000002E-5</v>
-      </c>
-      <c r="H122">
-        <v>2.7321904653979E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123">
-        <v>79</v>
-      </c>
-      <c r="B123">
-        <v>25025071101</v>
-      </c>
-      <c r="C123">
-        <v>3904559.5</v>
-      </c>
-      <c r="D123">
-        <v>89.636399999999995</v>
-      </c>
-      <c r="E123">
-        <v>1916</v>
-      </c>
-      <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" s="1">
-        <v>3.9627672983000001E-5</v>
-      </c>
-      <c r="H123">
-        <v>2.9742203946819E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124">
-        <v>80</v>
-      </c>
-      <c r="B124">
-        <v>25025070900</v>
-      </c>
-      <c r="C124">
-        <v>1802491.05</v>
-      </c>
-      <c r="D124">
-        <v>41.3795</v>
-      </c>
-      <c r="E124">
-        <v>1847</v>
-      </c>
-      <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" s="1">
-        <v>1.8294325920000001E-5</v>
-      </c>
-      <c r="H124">
-        <v>1.8656731310761999E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125">
-        <v>81</v>
-      </c>
-      <c r="B125">
-        <v>25025100100</v>
-      </c>
-      <c r="C125">
-        <v>11170897.960000001</v>
-      </c>
-      <c r="D125">
-        <v>256.44850000000002</v>
-      </c>
-      <c r="E125">
-        <v>5453</v>
-      </c>
-      <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125">
-        <v>1.13293447185E-4</v>
-      </c>
-      <c r="H125">
-        <v>4.7456001029089E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126">
-        <v>82</v>
-      </c>
-      <c r="B126">
-        <v>25025092400</v>
-      </c>
-      <c r="C126">
-        <v>6393422.5300000003</v>
-      </c>
-      <c r="D126">
-        <v>146.77279999999999</v>
-      </c>
-      <c r="E126">
-        <v>5221</v>
-      </c>
-      <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" s="1">
-        <v>6.4846991276E-5</v>
-      </c>
-      <c r="H126">
-        <v>4.2662873929049001E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127">
-        <v>108</v>
-      </c>
-      <c r="B127">
-        <v>25025070800</v>
-      </c>
-      <c r="C127">
-        <v>2092259.14</v>
-      </c>
-      <c r="D127">
-        <v>48.031700000000001</v>
-      </c>
-      <c r="E127">
-        <v>1399</v>
-      </c>
-      <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" s="1">
-        <v>2.1236218395999999E-5</v>
-      </c>
-      <c r="H127">
-        <v>1.9891600471923999E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128">
-        <v>139</v>
-      </c>
-      <c r="B128">
-        <v>25025091400</v>
-      </c>
-      <c r="C128">
-        <v>3498284.33</v>
-      </c>
-      <c r="D128">
-        <v>80.309600000000003</v>
-      </c>
-      <c r="E128">
-        <v>2545</v>
-      </c>
-      <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" s="1">
-        <v>3.5492911276999998E-5</v>
-      </c>
-      <c r="H128">
-        <v>2.6526792932319E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129">
-        <v>140</v>
-      </c>
-      <c r="B129">
-        <v>25025091300</v>
-      </c>
-      <c r="C129">
-        <v>2825980.81</v>
-      </c>
-      <c r="D129">
-        <v>64.875600000000006</v>
-      </c>
-      <c r="E129">
-        <v>2334</v>
-      </c>
-      <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" s="1">
-        <v>2.8673931511E-5</v>
-      </c>
-      <c r="H129">
-        <v>2.6920985662905E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130">
-        <v>143</v>
-      </c>
-      <c r="B130">
-        <v>25025090700</v>
-      </c>
-      <c r="C130">
-        <v>11544136.43</v>
-      </c>
-      <c r="D130">
-        <v>265.01690000000002</v>
-      </c>
-      <c r="E130">
-        <v>1678</v>
-      </c>
-      <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130">
-        <v>1.1714071914E-4</v>
-      </c>
-      <c r="H130">
-        <v>4.4662408570019997E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131">
-        <v>144</v>
-      </c>
-      <c r="B131">
-        <v>25025090600</v>
-      </c>
-      <c r="C131">
-        <v>3246866.13</v>
-      </c>
-      <c r="D131">
-        <v>74.537800000000004</v>
-      </c>
-      <c r="E131">
-        <v>2255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" s="1">
-        <v>3.2946021850999999E-5</v>
-      </c>
-      <c r="H131">
-        <v>2.9311390381211E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132">
-        <v>145</v>
-      </c>
-      <c r="B132">
-        <v>25025090400</v>
-      </c>
-      <c r="C132">
-        <v>4575787.71</v>
-      </c>
-      <c r="D132">
-        <v>105.04559999999999</v>
-      </c>
-      <c r="E132">
-        <v>3570</v>
-      </c>
-      <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" s="1">
-        <v>4.6426423392E-5</v>
-      </c>
-      <c r="H132">
-        <v>3.2228125670903003E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
-        <v>146</v>
-      </c>
-      <c r="B133">
-        <v>25025090300</v>
-      </c>
-      <c r="C133">
-        <v>4094225.77</v>
-      </c>
-      <c r="D133">
-        <v>93.990499999999997</v>
-      </c>
-      <c r="E133">
-        <v>3132</v>
-      </c>
-      <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" s="1">
-        <v>4.1536425753999998E-5</v>
-      </c>
-      <c r="H133">
-        <v>2.9747067376904999E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134">
-        <v>147</v>
-      </c>
-      <c r="B134">
-        <v>25025090200</v>
-      </c>
-      <c r="C134">
-        <v>2945580.09</v>
-      </c>
-      <c r="D134">
-        <v>67.621200000000002</v>
-      </c>
-      <c r="E134">
-        <v>2193</v>
-      </c>
-      <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" s="1">
-        <v>2.9881491086000001E-5</v>
-      </c>
-      <c r="H134">
-        <v>2.5438437464499E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135">
-        <v>148</v>
-      </c>
-      <c r="B135">
-        <v>25025080100</v>
-      </c>
-      <c r="C135">
-        <v>11047170.59</v>
-      </c>
-      <c r="D135">
-        <v>253.60810000000001</v>
-      </c>
-      <c r="E135">
-        <v>2834</v>
-      </c>
-      <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135">
-        <v>1.1210703586E-4</v>
-      </c>
-      <c r="H135">
-        <v>5.9038917511483997E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136">
-        <v>162</v>
-      </c>
-      <c r="B136">
-        <v>25025090100</v>
-      </c>
-      <c r="C136">
-        <v>4811070.9800000004</v>
-      </c>
-      <c r="D136">
-        <v>110.447</v>
-      </c>
-      <c r="E136">
-        <v>4485</v>
-      </c>
-      <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" s="1">
-        <v>4.8802381290999999E-5</v>
-      </c>
-      <c r="H136">
-        <v>3.1604262365736997E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137">
-        <v>163</v>
-      </c>
-      <c r="B137">
-        <v>25025082100</v>
-      </c>
-      <c r="C137">
-        <v>3988567.24</v>
-      </c>
-      <c r="D137">
-        <v>91.564899999999994</v>
-      </c>
-      <c r="E137">
-        <v>4963</v>
-      </c>
-      <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" s="1">
-        <v>4.0463556584000001E-5</v>
-      </c>
-      <c r="H137">
-        <v>2.7439615194947999E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138">
-        <v>164</v>
-      </c>
-      <c r="B138">
-        <v>25025082000</v>
-      </c>
-      <c r="C138">
-        <v>4220856.09</v>
-      </c>
-      <c r="D138">
-        <v>96.897499999999994</v>
-      </c>
-      <c r="E138">
-        <v>2763</v>
-      </c>
-      <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" s="1">
-        <v>4.2822969960999999E-5</v>
-      </c>
-      <c r="H138">
-        <v>2.735077360763E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139">
-        <v>175</v>
-      </c>
-      <c r="B139">
-        <v>25025081900</v>
-      </c>
-      <c r="C139">
-        <v>4664571.96</v>
-      </c>
-      <c r="D139">
-        <v>107.0838</v>
-      </c>
-      <c r="E139">
-        <v>3047</v>
-      </c>
-      <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" s="1">
-        <v>4.7325989967000003E-5</v>
-      </c>
-      <c r="H139">
-        <v>3.7267564169793002E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140">
-        <v>176</v>
-      </c>
-      <c r="B140">
-        <v>25025081800</v>
-      </c>
-      <c r="C140">
-        <v>4024571.84</v>
-      </c>
-      <c r="D140">
-        <v>92.391499999999994</v>
-      </c>
-      <c r="E140">
-        <v>2820</v>
-      </c>
-      <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" s="1">
-        <v>4.0835739277E-5</v>
-      </c>
-      <c r="H140">
-        <v>3.0773745300002001E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141">
-        <v>177</v>
-      </c>
-      <c r="B141">
-        <v>25025081700</v>
-      </c>
-      <c r="C141">
-        <v>6819156.25</v>
-      </c>
-      <c r="D141">
-        <v>156.5463</v>
-      </c>
-      <c r="E141">
-        <v>3746</v>
-      </c>
-      <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" s="1">
-        <v>6.9193844378000001E-5</v>
-      </c>
-      <c r="H141">
-        <v>3.6230014765374997E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142">
-        <v>178</v>
-      </c>
-      <c r="B142">
-        <v>25025081500</v>
-      </c>
-      <c r="C142">
-        <v>3619583.13</v>
-      </c>
-      <c r="D142">
-        <v>83.094200000000001</v>
-      </c>
-      <c r="E142">
-        <v>1957</v>
-      </c>
-      <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" s="1">
-        <v>3.6726705604E-5</v>
-      </c>
-      <c r="H142">
-        <v>3.7180224019013997E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143">
-        <v>123</v>
-      </c>
-      <c r="B143">
-        <v>25025061000</v>
-      </c>
-      <c r="C143">
-        <v>1862434.17</v>
-      </c>
-      <c r="D143">
-        <v>42.755600000000001</v>
-      </c>
-      <c r="E143">
-        <v>1814</v>
-      </c>
-      <c r="F143" t="s">
-        <v>25</v>
-      </c>
-      <c r="G143" s="1">
-        <v>1.8900711740000001E-5</v>
-      </c>
-      <c r="H143">
-        <v>1.8864067579945999E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144">
-        <v>124</v>
-      </c>
-      <c r="B144">
-        <v>25025060800</v>
-      </c>
-      <c r="C144">
-        <v>3672689.59</v>
-      </c>
-      <c r="D144">
-        <v>84.313400000000001</v>
-      </c>
-      <c r="E144">
-        <v>387</v>
-      </c>
-      <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" s="1">
-        <v>3.7274082965999999E-5</v>
-      </c>
-      <c r="H144">
-        <v>3.0296446484030001E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
-        <v>125</v>
-      </c>
-      <c r="B145">
-        <v>25025060700</v>
-      </c>
-      <c r="C145">
-        <v>1380119.54</v>
-      </c>
-      <c r="D145">
-        <v>31.683199999999999</v>
-      </c>
-      <c r="E145">
-        <v>1539</v>
-      </c>
-      <c r="F145" t="s">
-        <v>25</v>
-      </c>
-      <c r="G145" s="1">
-        <v>1.4007501132E-5</v>
-      </c>
-      <c r="H145">
-        <v>1.5586835240993E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
-        <v>149</v>
-      </c>
-      <c r="B146">
-        <v>25025060301</v>
-      </c>
-      <c r="C146">
-        <v>2933185.1</v>
-      </c>
-      <c r="D146">
-        <v>67.336699999999993</v>
-      </c>
-      <c r="E146">
-        <v>107</v>
-      </c>
-      <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" s="1">
-        <v>2.9767949666000001E-5</v>
-      </c>
-      <c r="H146">
-        <v>2.8776031108454E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>25025060101</v>
-      </c>
-      <c r="C147">
-        <v>3181825.6</v>
-      </c>
-      <c r="D147">
-        <v>73.044700000000006</v>
-      </c>
-      <c r="E147">
-        <v>101</v>
-      </c>
-      <c r="F147" t="s">
-        <v>25</v>
-      </c>
-      <c r="G147" s="1">
-        <v>3.2291990485000001E-5</v>
-      </c>
-      <c r="H147">
-        <v>2.5715036243789E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148">
-        <v>155</v>
-      </c>
-      <c r="B148">
-        <v>25025060400</v>
-      </c>
-      <c r="C148">
-        <v>4297519.18</v>
-      </c>
-      <c r="D148">
-        <v>98.657499999999999</v>
-      </c>
-      <c r="E148">
-        <v>278</v>
-      </c>
-      <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" s="1">
-        <v>4.3613426660999998E-5</v>
-      </c>
-      <c r="H148">
-        <v>3.1031270395122001E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149">
-        <v>156</v>
-      </c>
-      <c r="B149">
-        <v>25025060200</v>
-      </c>
-      <c r="C149">
-        <v>1833887.31</v>
-      </c>
-      <c r="D149">
-        <v>42.100299999999997</v>
-      </c>
-      <c r="E149">
+      <c r="G150" s="1">
+        <v>1.2773593728E-5</v>
+      </c>
+      <c r="H150">
+        <v>1.8248942942056E-2</v>
+      </c>
+      <c r="I150">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>129</v>
+      </c>
+      <c r="B151">
+        <v>25025020302</v>
+      </c>
+      <c r="C151">
+        <v>826400.6</v>
+      </c>
+      <c r="D151">
+        <v>18.971499999999999</v>
+      </c>
+      <c r="E151">
+        <v>170</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" s="1">
+        <v>8.3902607989999997E-6</v>
+      </c>
+      <c r="H151">
+        <v>1.2034599709331999E-2</v>
+      </c>
+      <c r="I151">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>130</v>
+      </c>
+      <c r="B152">
+        <v>25025020301</v>
+      </c>
+      <c r="C152">
+        <v>2761716.23</v>
+      </c>
+      <c r="D152">
+        <v>63.400300000000001</v>
+      </c>
+      <c r="E152">
+        <v>620</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" s="1">
+        <v>2.8040871168000002E-5</v>
+      </c>
+      <c r="H152">
+        <v>3.5367995965821998E-2</v>
+      </c>
+      <c r="I152">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>23</v>
+      </c>
+      <c r="B153">
+        <v>25025140102</v>
+      </c>
+      <c r="C153">
+        <v>23198637.859999999</v>
+      </c>
+      <c r="D153">
+        <v>532.56740000000002</v>
+      </c>
+      <c r="E153">
+        <v>2702</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153">
+        <v>2.35113947053E-4</v>
+      </c>
+      <c r="H153">
+        <v>8.9336904762404995E-2</v>
+      </c>
+      <c r="I153">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>29</v>
+      </c>
+      <c r="B154">
+        <v>25025130402</v>
+      </c>
+      <c r="C154">
+        <v>24463363.16</v>
+      </c>
+      <c r="D154">
+        <v>561.60149999999999</v>
+      </c>
+      <c r="E154">
+        <v>942</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154">
+        <v>2.4803608675800002E-4</v>
+      </c>
+      <c r="H154">
+        <v>8.6373821558367994E-2</v>
+      </c>
+      <c r="I154">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>32</v>
       </c>
-      <c r="F149" t="s">
-        <v>25</v>
-      </c>
-      <c r="G149" s="1">
-        <v>1.8611273799000001E-5</v>
-      </c>
-      <c r="H149">
-        <v>2.3831268027914999E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150">
-        <v>92</v>
-      </c>
-      <c r="B150">
-        <v>25025060501</v>
-      </c>
-      <c r="C150">
-        <v>4431658.04</v>
-      </c>
-      <c r="D150">
-        <v>101.73690000000001</v>
-      </c>
-      <c r="E150">
-        <v>228</v>
-      </c>
-      <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" s="1">
-        <v>4.4977917158999999E-5</v>
-      </c>
-      <c r="H150">
-        <v>4.0815973343211E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151">
-        <v>95</v>
-      </c>
-      <c r="B151">
-        <v>25025981202</v>
-      </c>
-      <c r="C151">
-        <v>17165825.449999999</v>
-      </c>
-      <c r="D151">
-        <v>394.07310000000001</v>
-      </c>
-      <c r="E151">
-        <v>52</v>
-      </c>
-      <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151">
-        <v>1.74234567974E-4</v>
-      </c>
-      <c r="H151">
-        <v>0.17719313141471901</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152">
-        <v>154</v>
-      </c>
-      <c r="B152">
-        <v>25025060600</v>
-      </c>
-      <c r="C152">
-        <v>13571977.550000001</v>
-      </c>
-      <c r="D152">
-        <v>311.56970000000001</v>
-      </c>
-      <c r="E152">
-        <v>318</v>
-      </c>
-      <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152">
-        <v>1.3776707448200001E-4</v>
-      </c>
-      <c r="H152">
-        <v>0.102629393971979</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153">
-        <v>109</v>
-      </c>
-      <c r="B153">
-        <v>25025070700</v>
-      </c>
-      <c r="C153">
-        <v>1766562.81</v>
-      </c>
-      <c r="D153">
-        <v>40.554699999999997</v>
-      </c>
-      <c r="E153">
-        <v>1074</v>
-      </c>
-      <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" s="1">
-        <v>1.7931746006000001E-5</v>
-      </c>
-      <c r="H153">
-        <v>2.3717543729934999E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154">
-        <v>110</v>
-      </c>
-      <c r="B154">
-        <v>25025070600</v>
-      </c>
-      <c r="C154">
-        <v>1426485.77</v>
-      </c>
-      <c r="D154">
-        <v>32.747599999999998</v>
-      </c>
-      <c r="E154">
-        <v>402</v>
-      </c>
-      <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" s="1">
-        <v>1.447915581E-5</v>
-      </c>
-      <c r="H154">
-        <v>1.8925617570222E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155">
-        <v>111</v>
-      </c>
       <c r="B155">
-        <v>25025070500</v>
+        <v>25025130100</v>
       </c>
       <c r="C155">
-        <v>3199661.22</v>
+        <v>47252103.119999997</v>
       </c>
       <c r="D155">
-        <v>73.454099999999997</v>
+        <v>1084.759</v>
       </c>
       <c r="E155">
-        <v>2498</v>
+        <v>1117</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" s="1">
-        <v>3.2476640696000003E-5</v>
+        <v>15</v>
+      </c>
+      <c r="G155">
+        <v>4.7921948714999999E-4</v>
       </c>
       <c r="H155">
-        <v>3.1037770260738999E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>0.116501548193121</v>
+      </c>
+      <c r="I155">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B156">
-        <v>25025061200</v>
+        <v>25025130404</v>
       </c>
       <c r="C156">
-        <v>19820250.559999999</v>
+        <v>17628731.82</v>
       </c>
       <c r="D156">
-        <v>455.01029999999997</v>
+        <v>404.7</v>
       </c>
       <c r="E156">
-        <v>497</v>
+        <v>847</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G156">
-        <v>2.0116772749700001E-4</v>
+        <v>1.7872735300899999E-4</v>
       </c>
       <c r="H156">
-        <v>7.9030818552841997E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>5.7927033715210997E-2</v>
+      </c>
+      <c r="I156">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B157">
-        <v>25025071201</v>
+        <v>25025130406</v>
       </c>
       <c r="C157">
-        <v>4329260.4800000004</v>
+        <v>11351426.76</v>
       </c>
       <c r="D157">
-        <v>99.386099999999999</v>
+        <v>260.59289999999999</v>
       </c>
       <c r="E157">
-        <v>1913</v>
+        <v>3513</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" s="1">
-        <v>4.3940642752000003E-5</v>
+        <v>15</v>
+      </c>
+      <c r="G157">
+        <v>1.15070298606E-4</v>
       </c>
       <c r="H157">
-        <v>3.5872354923818003E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158">
-        <v>60</v>
-      </c>
-      <c r="B158">
-        <v>25025020200</v>
-      </c>
-      <c r="C158">
-        <v>1258118.25</v>
-      </c>
-      <c r="D158">
-        <v>28.882400000000001</v>
-      </c>
-      <c r="E158">
-        <v>610</v>
-      </c>
-      <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" s="1">
-        <v>1.2773593728E-5</v>
-      </c>
-      <c r="H158">
-        <v>1.8248942942056E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159">
-        <v>129</v>
-      </c>
-      <c r="B159">
-        <v>25025020302</v>
-      </c>
-      <c r="C159">
-        <v>826400.6</v>
-      </c>
-      <c r="D159">
-        <v>18.971499999999999</v>
-      </c>
-      <c r="E159">
-        <v>170</v>
-      </c>
-      <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" s="1">
-        <v>8.3902607989999997E-6</v>
-      </c>
-      <c r="H159">
-        <v>1.2034599709331999E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160">
-        <v>130</v>
-      </c>
-      <c r="B160">
-        <v>25025020301</v>
-      </c>
-      <c r="C160">
-        <v>2761716.23</v>
-      </c>
-      <c r="D160">
-        <v>63.400300000000001</v>
-      </c>
-      <c r="E160">
-        <v>620</v>
-      </c>
-      <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" s="1">
-        <v>2.8040871168000002E-5</v>
-      </c>
-      <c r="H160">
-        <v>3.5367995965821998E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161">
-        <v>23</v>
-      </c>
-      <c r="B161">
-        <v>25025140102</v>
-      </c>
-      <c r="C161">
-        <v>23198637.859999999</v>
-      </c>
-      <c r="D161">
-        <v>532.56740000000002</v>
-      </c>
-      <c r="E161">
-        <v>2702</v>
-      </c>
-      <c r="F161" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161">
-        <v>2.35113947053E-4</v>
-      </c>
-      <c r="H161">
-        <v>8.9336904762404995E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162">
-        <v>29</v>
-      </c>
-      <c r="B162">
-        <v>25025130402</v>
-      </c>
-      <c r="C162">
-        <v>24463363.16</v>
-      </c>
-      <c r="D162">
-        <v>561.60149999999999</v>
-      </c>
-      <c r="E162">
-        <v>942</v>
-      </c>
-      <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162">
-        <v>2.4803608675800002E-4</v>
-      </c>
-      <c r="H162">
-        <v>8.6373821558367994E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163">
-        <v>32</v>
-      </c>
-      <c r="B163">
-        <v>25025130100</v>
-      </c>
-      <c r="C163">
-        <v>47252103.119999997</v>
-      </c>
-      <c r="D163">
-        <v>1084.759</v>
-      </c>
-      <c r="E163">
-        <v>1117</v>
-      </c>
-      <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163">
-        <v>4.7921948714999999E-4</v>
-      </c>
-      <c r="H163">
-        <v>0.116501548193121</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164">
-        <v>94</v>
-      </c>
-      <c r="B164">
-        <v>25025130404</v>
-      </c>
-      <c r="C164">
-        <v>17628731.82</v>
-      </c>
-      <c r="D164">
-        <v>404.7</v>
-      </c>
-      <c r="E164">
-        <v>847</v>
-      </c>
-      <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164">
-        <v>1.7872735300899999E-4</v>
-      </c>
-      <c r="H164">
-        <v>5.7927033715210997E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165">
-        <v>102</v>
-      </c>
-      <c r="B165">
-        <v>25025130406</v>
-      </c>
-      <c r="C165">
-        <v>11351426.76</v>
-      </c>
-      <c r="D165">
-        <v>260.59289999999999</v>
-      </c>
-      <c r="E165">
-        <v>3513</v>
-      </c>
-      <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165">
-        <v>1.15070298606E-4</v>
-      </c>
-      <c r="H165">
         <v>5.6603070460133999E-2</v>
+      </c>
+      <c r="I157">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H165">
-      <sortCondition ref="F1:F165"/>
+    <sortState ref="A2:H157">
+      <sortCondition ref="F1:F157"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H165">
-    <sortCondition ref="F3:F165"/>
+  <sortState ref="A3:H157">
+    <sortCondition ref="F3:F157"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
